--- a/Results/Homogeneous&Heterogeneous-EEMD_Merged.xlsx
+++ b/Results/Homogeneous&Heterogeneous-EEMD_Merged.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="59">
   <si>
     <t>BA</t>
   </si>
@@ -194,6 +194,15 @@
   <si>
     <t>EEMD--HEM</t>
   </si>
+  <si>
+    <t>IP-RMSE</t>
+  </si>
+  <si>
+    <t>IP-MAE</t>
+  </si>
+  <si>
+    <t>H=7.EEMD--HEM</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +236,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +265,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,18 +345,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3881,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:AI36"/>
+    <sheetView topLeftCell="M10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11350,42 +11375,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AC25"/>
+    <sheetView topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.5703125" customWidth="1"/>
     <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.7109375" customWidth="1"/>
     <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" customWidth="1"/>
-    <col min="29" max="29" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.5703125" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="7.5703125" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -11393,40 +11418,50 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="34" t="s">
-        <v>2</v>
-      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="34"/>
       <c r="U1" s="34"/>
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z1" s="34"/>
       <c r="AA1" s="34"/>
       <c r="AB1" s="34"/>
       <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -11436,43 +11471,47 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10"/>
       <c r="T2" s="10" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>38</v>
@@ -11491,11 +11530,37 @@
       <c r="AB2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11509,74 +11574,114 @@
         <f t="shared" ref="D3:D12" si="0">1-0.5*($B$3/B3+$C$3/C3)</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
+        <f>(B3-$B$3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(C3-$C$3)/C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="18">
+      <c r="J3" s="18">
         <v>342.41630944615599</v>
       </c>
-      <c r="I3" s="18">
+      <c r="K3" s="18">
         <v>302.33440990266303</v>
       </c>
-      <c r="J3" s="16">
-        <f t="shared" ref="J3:J12" si="1">1-0.5*($H$3/H3+$I$3/I3)</f>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L12" si="1">1-0.5*($J$3/J3+$K$3/K3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16">
+        <f>(J3-$J$3)/J3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <f>(K3-$K$4)/K3</f>
+        <v>1.9370884270339964E-2</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="18">
+      <c r="R3" s="18">
         <v>409.84808220509802</v>
       </c>
-      <c r="O3" s="18">
+      <c r="S3" s="18">
         <v>390.23350598362401</v>
       </c>
-      <c r="P3" s="16">
-        <f>1-0.5*($N$3/N3+$O$3/O3)</f>
+      <c r="T3" s="16">
+        <f>(R3-$R$3)/R3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="18">
-        <v>734.43521346733405</v>
-      </c>
-      <c r="U3" s="18">
-        <v>624.20805618205998</v>
+      <c r="U3" s="16">
+        <f>(S3-$S$4)/S3</f>
+        <v>0.14612260306700295</v>
       </c>
       <c r="V3" s="16">
-        <f>1-0.5*($T$3/T3+$U$3/U3)</f>
+        <f>1-0.5*($R$3/R3+$S$3/S3)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="19">
-        <v>3</v>
-      </c>
-      <c r="X3" s="19"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="18">
-        <v>171.40087302949499</v>
+        <v>734.43521346733405</v>
       </c>
       <c r="AA3" s="18">
-        <v>140.48030886387801</v>
+        <v>624.20805618205998</v>
       </c>
       <c r="AB3" s="16">
         <f>1-0.5*($Z$3/Z3+$AA$3/AA3)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="19">
-        <v>731</v>
+      <c r="AC3" s="16">
+        <f>(Z3-$Z$3)/Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <f>(AA3-$AA$4)/AA3</f>
+        <v>1.1434042950798072E-3</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>255.19</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>208.43</v>
+      </c>
+      <c r="AJ3" s="14">
+        <f>1-0.5*($AH$4/AH3+$AI$4/AI3)</f>
+        <v>0.32717370806223744</v>
+      </c>
+      <c r="AK3" s="14">
+        <f>(AH3-$AH$4)/AH3</f>
+        <v>0.32834016603513072</v>
+      </c>
+      <c r="AL3" s="14">
+        <f>(AI3-$AI$4)/AI3</f>
+        <v>0.32600725008934411</v>
+      </c>
+      <c r="AM3" s="19">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -11590,78 +11695,118 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E12" si="2">(B4-$B$3)/B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F12" si="3">(C4-$C$3)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>372.38642852962198</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <v>296.47792503749702</v>
       </c>
-      <c r="J4" s="14">
+      <c r="L4" s="14">
         <f t="shared" si="1"/>
         <v>3.0363852935388902E-2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M12" si="4">(J4-$J$3)/J4</f>
+        <v>8.04812334375445E-2</v>
+      </c>
+      <c r="N4" s="14">
+        <f>(K4-$K$4)/K4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
         <v>42</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="18" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="18">
+      <c r="R4" s="18">
         <v>424.95912766212001</v>
       </c>
-      <c r="O4" s="18">
+      <c r="S4" s="18">
         <v>333.21157028533401</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" ref="P4:P12" si="2">1-0.5*($N$3/N4+$O$3/O4)</f>
+      <c r="T4" s="16">
+        <f t="shared" ref="T4:T12" si="5">(R4-$R$3)/R4</f>
+        <v>3.5558820774492461E-2</v>
+      </c>
+      <c r="U4" s="16">
+        <f>(S4-$S$4)/S4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" ref="V4:V12" si="6">1-0.5*($R$3/R4+$S$3/S4)</f>
         <v>-6.7784748818662033E-2</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="W4" s="11">
         <v>385</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="10">
-        <v>788.21040786370202</v>
-      </c>
-      <c r="U4" s="10">
-        <v>623.49433400959799</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" ref="V4:V12" si="3">1-0.5*($T$3/T4+$U$3/U4)</f>
-        <v>3.3539851185786507E-2</v>
-      </c>
-      <c r="W4" s="11">
-        <v>1</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>788.21040786370202</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>623.49433400959799</v>
+      </c>
+      <c r="AB4" s="14">
+        <f>1-0.5*($Z$3/Z4+$AA$3/AA4)</f>
+        <v>3.3539851185786507E-2</v>
+      </c>
+      <c r="AC4" s="16">
+        <f t="shared" ref="AC4:AC12" si="7">(Z4-$Z$3)/Z4</f>
+        <v>6.8224415536602273E-2</v>
+      </c>
+      <c r="AD4" s="14">
+        <f>(AA4-$AA$4)/AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="AH4" s="10">
         <v>171.40087302949499</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AI4" s="10">
         <v>140.48030886387801</v>
       </c>
-      <c r="AB4" s="14">
-        <f t="shared" ref="AB4:AB12" si="4">1-0.5*($Z$3/Z4+$AA$3/AA4)</f>
+      <c r="AJ4" s="14">
+        <f>1-0.5*($AH$4/AH4+$AI$4/AI4)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AK4" s="14">
+        <f>(AH4-$AH$4)/AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <f>(AI4-$AI$4)/AI4</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="11">
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -11675,76 +11820,116 @@
         <f t="shared" si="0"/>
         <v>8.712587978702846E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>7.1073484174357826E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="3"/>
+        <v>0.10317827539969908</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
         <v>433.74319767650599</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="10">
         <v>363.70551923442599</v>
       </c>
-      <c r="J5" s="14">
+      <c r="L5" s="14">
         <f t="shared" si="1"/>
         <v>0.18964683304465502</v>
       </c>
-      <c r="K5" s="11">
+      <c r="M5" s="16">
+        <f t="shared" si="4"/>
+        <v>0.21055520575209882</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" ref="N5:N12" si="8">(K5-$K$4)/K5</f>
+        <v>0.18484073142040361</v>
+      </c>
+      <c r="O5" s="11">
         <v>365</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10">
+      <c r="R5" s="10">
         <v>487.311391761967</v>
       </c>
-      <c r="O5" s="10">
+      <c r="S5" s="10">
         <v>403.20745635441898</v>
       </c>
-      <c r="P5" s="14">
-        <f t="shared" si="2"/>
+      <c r="T5" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15896059658442552</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" ref="U5:U12" si="9">(S5-$S$4)/S5</f>
+        <v>0.17359769757719623</v>
+      </c>
+      <c r="V5" s="14">
+        <f t="shared" si="6"/>
         <v>9.5568728908177025E-2</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="W5" s="11">
         <v>365</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10" t="s">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="10">
+      <c r="Z5" s="10">
         <v>861.21723178827494</v>
       </c>
-      <c r="U5" s="10">
+      <c r="AA5" s="10">
         <v>748.85200985782706</v>
       </c>
-      <c r="V5" s="14">
-        <f t="shared" si="3"/>
+      <c r="AB5" s="14">
+        <f t="shared" ref="AB4:AB12" si="10">1-0.5*($Z$3/Z5+$AA$3/AA5)</f>
         <v>0.15682964970305246</v>
       </c>
-      <c r="W5" s="11">
+      <c r="AC5" s="16">
+        <f t="shared" si="7"/>
+        <v>0.14721258892798081</v>
+      </c>
+      <c r="AD5" s="14">
+        <f t="shared" ref="AD5:AD12" si="11">(AA5-$AA$4)/AA5</f>
+        <v>0.16739979888954132</v>
+      </c>
+      <c r="AE5" s="11">
         <v>731</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="12" t="s">
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AH5" s="10">
         <v>241.92571844677599</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AI5" s="10">
         <v>229.64566126111799</v>
       </c>
-      <c r="AB5" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ5" s="14">
+        <f t="shared" ref="AJ5:AJ12" si="12">1-0.5*($AH$4/AH5+$AI$4/AI5)</f>
         <v>0.33989404090107445</v>
       </c>
-      <c r="AC5" s="11"/>
+      <c r="AK5" s="14">
+        <f t="shared" ref="AK5:AK12" si="13">(AH5-$AH$4)/AH5</f>
+        <v>0.29151446100922324</v>
+      </c>
+      <c r="AL5" s="14">
+        <f t="shared" ref="AL5:AL12" si="14">(AI5-$AI$4)/AI5</f>
+        <v>0.38827362079292566</v>
+      </c>
+      <c r="AM5" s="11"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -11758,78 +11943,118 @@
         <f t="shared" si="0"/>
         <v>0.16985312967669741</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>0.11421381584631798</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="3"/>
+        <v>0.22549244350707695</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="10">
         <v>658.68642991331797</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <v>566.73044240474701</v>
       </c>
-      <c r="J6" s="14">
+      <c r="L6" s="14">
         <f t="shared" si="1"/>
         <v>0.47334075407471343</v>
       </c>
-      <c r="K6" s="11">
+      <c r="M6" s="16">
+        <f t="shared" si="4"/>
+        <v>0.48015277999393824</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="8"/>
+        <v>0.47686253842393966</v>
+      </c>
+      <c r="O6" s="11">
         <v>729</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="10">
+      <c r="R6" s="10">
         <v>502.71605996099299</v>
       </c>
-      <c r="O6" s="10">
+      <c r="S6" s="10">
         <v>433.77461010847401</v>
       </c>
-      <c r="P6" s="14">
-        <f t="shared" si="2"/>
+      <c r="T6" s="16">
+        <f t="shared" si="5"/>
+        <v>0.18473246659973591</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="9"/>
+        <v>0.23183247124121029</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="6"/>
         <v>0.14255486019294694</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="W6" s="11">
         <v>730</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="10">
-        <v>878.45852726999306</v>
-      </c>
-      <c r="U6" s="10">
-        <v>711.63849748883899</v>
-      </c>
-      <c r="V6" s="14">
-        <f t="shared" si="3"/>
-        <v>0.14340399281520766</v>
-      </c>
-      <c r="W6" s="11">
-        <v>732</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="Z6" s="10">
+        <v>878.45852726999306</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>711.63849748883899</v>
+      </c>
+      <c r="AB6" s="14">
+        <f t="shared" si="10"/>
+        <v>0.14340399281520766</v>
+      </c>
+      <c r="AC6" s="16">
+        <f t="shared" si="7"/>
+        <v>0.16395004354985745</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="11"/>
+        <v>0.12386087007697812</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>732</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" s="10">
         <v>252.841243579077</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AI6" s="10">
         <v>194.099744524275</v>
       </c>
-      <c r="AB6" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ6" s="14">
+        <f t="shared" si="12"/>
         <v>0.29917381342175364</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AK6" s="14">
+        <f t="shared" si="13"/>
+        <v>0.3221008147118658</v>
+      </c>
+      <c r="AL6" s="14">
+        <f t="shared" si="14"/>
+        <v>0.27624681213164143</v>
+      </c>
+      <c r="AM6" s="11">
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -11843,76 +12068,116 @@
         <f t="shared" si="0"/>
         <v>0.21724919727525482</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.21328952353462047</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="3"/>
+        <v>0.22120887101588915</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>664.12985145925802</v>
       </c>
-      <c r="I7" s="10">
+      <c r="K7" s="10">
         <v>547.354021275528</v>
       </c>
-      <c r="J7" s="14">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>0.46602868668216357</v>
       </c>
-      <c r="K7" s="11">
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
+        <v>0.48441361475653832</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="8"/>
+        <v>0.45834338743579733</v>
+      </c>
+      <c r="O7" s="11">
         <v>731</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="10">
+      <c r="R7" s="10">
         <v>514.49013066231305</v>
       </c>
-      <c r="O7" s="10">
+      <c r="S7" s="10">
         <v>416.67351422991101</v>
       </c>
-      <c r="P7" s="14">
-        <f t="shared" si="2"/>
+      <c r="T7" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20338980715238852</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="9"/>
+        <v>0.20030537361807113</v>
+      </c>
+      <c r="V7" s="14">
+        <f t="shared" si="6"/>
         <v>0.13342239205737716</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="W7" s="11">
         <v>732</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10" t="s">
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="10">
+      <c r="Z7" s="10">
         <v>898.61763872781705</v>
       </c>
-      <c r="U7" s="10">
+      <c r="AA7" s="10">
         <v>712.29140508038802</v>
       </c>
-      <c r="V7" s="14">
-        <f t="shared" si="3"/>
+      <c r="AB7" s="14">
+        <f t="shared" si="10"/>
         <v>0.15318375075932544</v>
       </c>
-      <c r="W7" s="11">
+      <c r="AC7" s="16">
+        <f t="shared" si="7"/>
+        <v>0.18270554481093637</v>
+      </c>
+      <c r="AD7" s="14">
+        <f t="shared" si="11"/>
+        <v>0.12466396539035668</v>
+      </c>
+      <c r="AE7" s="11">
         <v>365</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12" t="s">
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AH7" s="10">
         <v>272.65590251703298</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AI7" s="10">
         <v>256.46165798901802</v>
       </c>
-      <c r="AB7" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ7" s="14">
+        <f t="shared" si="12"/>
         <v>0.41180111393242802</v>
       </c>
-      <c r="AC7" s="11"/>
+      <c r="AK7" s="14">
+        <f t="shared" si="13"/>
+        <v>0.37136562441083604</v>
+      </c>
+      <c r="AL7" s="14">
+        <f t="shared" si="14"/>
+        <v>0.45223660345401989</v>
+      </c>
+      <c r="AM7" s="11"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -11926,76 +12191,116 @@
         <f t="shared" si="0"/>
         <v>0.22908741322681303</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.22161587854210107</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="3"/>
+        <v>0.23655894791152501</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="10">
         <v>694.612486422242</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <v>630.12391169980697</v>
       </c>
-      <c r="J8" s="14">
+      <c r="L8" s="14">
         <f t="shared" si="1"/>
         <v>0.51361914113438056</v>
       </c>
-      <c r="K8" s="11">
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>0.50703980112731883</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="8"/>
+        <v>0.5294926608359849</v>
+      </c>
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="10">
+      <c r="R8" s="10">
         <v>518.98843130321097</v>
       </c>
-      <c r="O8" s="10">
+      <c r="S8" s="10">
         <v>516.00313288111602</v>
       </c>
-      <c r="P8" s="14">
-        <f t="shared" si="2"/>
+      <c r="T8" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21029437751445637</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="9"/>
+        <v>0.35424506354285268</v>
+      </c>
+      <c r="V8" s="14">
+        <f t="shared" si="6"/>
         <v>0.22701624233763407</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="10">
-        <v>908.79657272190605</v>
-      </c>
-      <c r="U8" s="10">
-        <v>758.88012054988303</v>
-      </c>
-      <c r="V8" s="14">
-        <f t="shared" si="3"/>
-        <v>0.18466059622043107</v>
-      </c>
-      <c r="W8" s="11">
-        <v>729</v>
-      </c>
+      <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>908.79657272190605</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>758.88012054988303</v>
+      </c>
+      <c r="AB8" s="14">
+        <f t="shared" si="10"/>
+        <v>0.18466059622043107</v>
+      </c>
+      <c r="AC8" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1918596135682468</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="11"/>
+        <v>0.17840207283620074</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>729</v>
+      </c>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AH8" s="10">
         <v>331.51568657943301</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AI8" s="10">
         <v>273.72462476133802</v>
       </c>
-      <c r="AB8" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ8" s="14">
+        <f t="shared" si="12"/>
         <v>0.48488022030541056</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AK8" s="14">
+        <f t="shared" si="13"/>
+        <v>0.48297809132954445</v>
+      </c>
+      <c r="AL8" s="14">
+        <f t="shared" si="14"/>
+        <v>0.48678234928127656</v>
+      </c>
+      <c r="AM8" s="11">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12009,78 +12314,118 @@
         <f t="shared" si="0"/>
         <v>0.23425363771864594</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.22899782865720791</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="3"/>
+        <v>0.2395094467800841</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>721.72263907512399</v>
       </c>
-      <c r="I9" s="10">
+      <c r="K9" s="10">
         <v>587.62164742606001</v>
       </c>
-      <c r="J9" s="14">
+      <c r="L9" s="14">
         <f t="shared" si="1"/>
         <v>0.50552584743898943</v>
       </c>
-      <c r="K9" s="11">
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
+        <v>0.52555692324553238</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="8"/>
+        <v>0.49546119286763918</v>
+      </c>
+      <c r="O9" s="11">
         <v>732</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="10">
+      <c r="R9" s="10">
         <v>525.59054997569206</v>
       </c>
-      <c r="O9" s="10">
+      <c r="S9" s="10">
         <v>381.75431240030701</v>
       </c>
-      <c r="P9" s="14">
-        <f t="shared" si="2"/>
+      <c r="T9" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22021413394123426</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="9"/>
+        <v>0.12715702360965384</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="6"/>
         <v>9.9001503381821676E-2</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="W9" s="11">
         <v>729</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="10">
-        <v>1137.3290552271201</v>
-      </c>
-      <c r="U9" s="10">
-        <v>1041.91098799816</v>
-      </c>
-      <c r="V9" s="14">
-        <f t="shared" si="3"/>
-        <v>0.37757320433191333</v>
-      </c>
-      <c r="W9" s="11">
-        <v>730</v>
       </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>1137.3290552271201</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1041.91098799816</v>
+      </c>
+      <c r="AB9" s="14">
+        <f t="shared" si="10"/>
+        <v>0.37757320433191333</v>
+      </c>
+      <c r="AC9" s="16">
+        <f t="shared" si="7"/>
+        <v>0.35424562478915106</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="11"/>
+        <v>0.40158579649157217</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>730</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AH9" s="10">
         <v>355.83516160401399</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AI9" s="10">
         <v>300.29799887963702</v>
       </c>
-      <c r="AB9" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ9" s="14">
+        <f t="shared" si="12"/>
         <v>0.52525541256030817</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AK9" s="14">
+        <f t="shared" si="13"/>
+        <v>0.51831383875369808</v>
+      </c>
+      <c r="AL9" s="14">
+        <f t="shared" si="14"/>
+        <v>0.53219698636691826</v>
+      </c>
+      <c r="AM9" s="11">
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -12094,76 +12439,116 @@
         <f t="shared" si="0"/>
         <v>0.33556703870574556</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.33313592187817598</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>0.33799815553331508</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="10">
+      <c r="J10" s="10">
         <v>841.77355818834701</v>
       </c>
-      <c r="I10" s="10">
+      <c r="K10" s="10">
         <v>691.51197811474003</v>
       </c>
-      <c r="J10" s="14">
+      <c r="L10" s="14">
         <f t="shared" si="1"/>
         <v>0.57800631607896436</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="16">
+        <f t="shared" si="4"/>
+        <v>0.59322040219094141</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="8"/>
+        <v>0.57126133108239008</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="10">
+      <c r="R10" s="10">
         <v>565.47133892344505</v>
       </c>
-      <c r="O10" s="10">
+      <c r="S10" s="10">
         <v>467.468959169117</v>
       </c>
-      <c r="P10" s="14">
-        <f t="shared" si="2"/>
+      <c r="T10" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2752098046465547</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="9"/>
+        <v>0.28720064990499716</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="6"/>
         <v>0.22021515020237914</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="W10" s="11">
         <v>731</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1263.0045243669699</v>
-      </c>
-      <c r="U10" s="10">
-        <v>983.28571428571399</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="3"/>
-        <v>0.39184146130106834</v>
-      </c>
-      <c r="W10" s="11">
-        <v>733</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>1263.0045243669699</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>983.28571428571399</v>
+      </c>
+      <c r="AB10" s="14">
+        <f t="shared" si="10"/>
+        <v>0.39184146130106834</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="7"/>
+        <v>0.41850151816721315</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="11"/>
+        <v>0.36590725874368918</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>733</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AH10" s="10">
         <v>367.79284604441398</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AI10" s="10">
         <v>295.28835170769702</v>
       </c>
-      <c r="AB10" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ10" s="14">
+        <f t="shared" si="12"/>
         <v>0.52911750238543442</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AK10" s="14">
+        <f t="shared" si="13"/>
+        <v>0.533974423720039</v>
+      </c>
+      <c r="AL10" s="14">
+        <f t="shared" si="14"/>
+        <v>0.52426058105082973</v>
+      </c>
+      <c r="AM10" s="11">
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -12177,75 +12562,115 @@
         <f t="shared" si="0"/>
         <v>0.36551912976984013</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.37435430665797842</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>0.35668395288170185</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10">
+      <c r="J11" s="10">
         <v>934.33195599247199</v>
       </c>
-      <c r="I11" s="10">
+      <c r="K11" s="10">
         <v>794.91358685252101</v>
       </c>
-      <c r="J11" s="14">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>0.62659065278265247</v>
       </c>
-      <c r="K11" s="11">
+      <c r="M11" s="16">
+        <f t="shared" si="4"/>
+        <v>0.63351750172942289</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="8"/>
+        <v>0.62703125227559853</v>
+      </c>
+      <c r="O11" s="11">
         <v>730</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="10">
+      <c r="R11" s="10">
         <v>1191.55363742401</v>
       </c>
-      <c r="O11" s="10">
+      <c r="S11" s="10">
         <v>910.90749277587599</v>
       </c>
-      <c r="P11" s="14">
-        <f t="shared" si="2"/>
+      <c r="T11" s="16">
+        <f t="shared" si="5"/>
+        <v>0.65603891479771037</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="9"/>
+        <v>0.63419823315986379</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="6"/>
         <v>0.61381905336307518</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="W11" s="11">
         <v>1</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="10">
-        <v>1301.9286561711599</v>
-      </c>
-      <c r="U11" s="10">
-        <v>911.02117007637003</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="3"/>
-        <v>0.37535635163573366</v>
-      </c>
-      <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>1301.9286561711599</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>911.02117007637003</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="10"/>
+        <v>0.37535635163573366</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.43588674388100995</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="11"/>
+        <v>0.31560939033136731</v>
+      </c>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AH11" s="10">
         <v>380.14942299646498</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AI11" s="10">
         <v>297.756559730064</v>
       </c>
-      <c r="AB11" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ11" s="14">
+        <f t="shared" si="12"/>
         <v>0.538663257730575</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AK11" s="14">
+        <f t="shared" si="13"/>
+        <v>0.54912236436279205</v>
+      </c>
+      <c r="AL11" s="14">
+        <f t="shared" si="14"/>
+        <v>0.52820415109835805</v>
+      </c>
+      <c r="AM11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -12259,90 +12684,130 @@
         <f t="shared" si="0"/>
         <v>0.52220358320986726</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.505692456179199</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.53871471024053563</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="10">
         <v>1964.79764497881</v>
       </c>
-      <c r="I12" s="10">
+      <c r="K12" s="10">
         <v>1862.3571428571399</v>
       </c>
-      <c r="J12" s="14">
+      <c r="L12" s="14">
         <f t="shared" si="1"/>
         <v>0.83169236881138986</v>
       </c>
-      <c r="K12" s="11">
+      <c r="M12" s="16">
+        <f t="shared" si="4"/>
+        <v>0.82572438931753256</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="8"/>
+        <v>0.84080501091071358</v>
+      </c>
+      <c r="O12" s="11">
         <v>733</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="10">
+      <c r="R12" s="10">
         <v>1759.2100905966699</v>
       </c>
-      <c r="O12" s="10">
+      <c r="S12" s="10">
         <v>1653.8571428571399</v>
       </c>
-      <c r="P12" s="14">
-        <f t="shared" si="2"/>
+      <c r="T12" s="16">
+        <f t="shared" si="5"/>
+        <v>0.7670272104532494</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="9"/>
+        <v>0.79852457527879928</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="6"/>
         <v>0.76553681754910152</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="W12" s="11">
         <v>733</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="10">
-        <v>1668.31143108775</v>
-      </c>
-      <c r="U12" s="10">
-        <v>1336.0466961593299</v>
-      </c>
-      <c r="V12" s="14">
-        <f t="shared" si="3"/>
-        <v>0.54628402217737104</v>
-      </c>
-      <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1668.31143108775</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>1336.0466961593299</v>
+      </c>
+      <c r="AB12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.54628402217737104</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="7"/>
+        <v>0.55977331343436432</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="11"/>
+        <v>0.53332893543172732</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AH12" s="10">
         <v>2242.83345983856</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AI12" s="10">
         <v>2210.9285714285702</v>
       </c>
-      <c r="AB12" s="14">
-        <f t="shared" si="4"/>
+      <c r="AJ12" s="14">
+        <f t="shared" si="12"/>
         <v>0.93001968404539825</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AK12" s="14">
+        <f t="shared" si="13"/>
+        <v>0.92357842162661852</v>
+      </c>
+      <c r="AL12" s="14">
+        <f t="shared" si="14"/>
+        <v>0.93646094646417832</v>
+      </c>
+      <c r="AM12" s="11">
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D13" s="14"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -12353,9 +12818,19 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="11"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="11"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
@@ -12363,40 +12838,50 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -12407,44 +12892,48 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="M15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="10"/>
       <c r="T15" s="10" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V15" s="10" t="s">
         <v>38</v>
@@ -12463,11 +12952,37 @@
       <c r="AB15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AC15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
@@ -12481,77 +12996,117 @@
         <f>1-0.5*($B$16/B16+$C$16/C16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
+        <f>(B16-$B$16)/B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <f>(C16-$C$16)/C16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
         <v>139</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="19"/>
+      <c r="I16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="18">
+      <c r="J16" s="18">
         <v>272.93865918277402</v>
       </c>
-      <c r="I16" s="18">
+      <c r="K16" s="18">
         <v>206.38115099655201</v>
       </c>
-      <c r="J16" s="16">
-        <f>1-0.5*($H$16/H16+$I$16/I16)</f>
+      <c r="L16" s="16">
+        <f t="shared" ref="L16:L25" si="15">1-0.5*($J$16/J16+$K$16/K16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="19">
+      <c r="M16" s="16">
+        <f>(J16-$J$16)/J16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <f>(K16-$K$16)/K16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
         <v>227</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18" t="s">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="18">
+      <c r="R16" s="18">
         <v>855.85907015553403</v>
       </c>
-      <c r="O16" s="18">
+      <c r="S16" s="18">
         <v>683.97076821156304</v>
       </c>
-      <c r="P16" s="16">
-        <f>1-0.5*($N$16/N16+$O$16/O16)</f>
+      <c r="T16" s="16">
+        <f>(R16-$R$16)/R16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="U16" s="32">
+        <f>(S16-$S$16)/S16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <f>1-0.5*($R$16/R16+$S$16/S16)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
         <v>276</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="18" t="s">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="18">
+      <c r="Z16" s="18">
         <v>6208.6013241258897</v>
       </c>
-      <c r="U16" s="18">
+      <c r="AA16" s="20">
         <v>4069.3792532305401</v>
-      </c>
-      <c r="V16" s="16">
-        <f>1-0.5*($T$16/T16+$U$16/U16)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="19">
-        <v>179</v>
-      </c>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z16" s="18">
-        <v>1483.8817448335101</v>
-      </c>
-      <c r="AA16" s="18">
-        <v>1197.8338054269</v>
       </c>
       <c r="AB16" s="16">
         <f>1-0.5*($Z$16/Z16+$AA$16/AA16)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="19"/>
+      <c r="AC16" s="16">
+        <f>(Z16-$Z$16)/Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <f t="shared" ref="AD16:AD20" si="16">(AA16-$AA$21)/AA16</f>
+        <v>0.27130928594082127</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>179</v>
+      </c>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH16" s="18">
+        <v>1483.8817448335101</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>1197.8338054269</v>
+      </c>
+      <c r="AJ16" s="16">
+        <f>1-0.5*($AH$16/AH16+$AI$16/AI16)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="16">
+        <f>(AH16-$AH$16)/AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="16">
+        <f>(AI16-$AI$16)/AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="19"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -12562,82 +13117,122 @@
         <v>353.86670890088499</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" ref="D17:D25" si="5">1-0.5*($B$16/B17+$C$16/C17)</f>
+        <f t="shared" ref="D17:D25" si="17">1-0.5*($B$16/B17+$C$16/C17)</f>
         <v>0.13215311150117648</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="16">
+        <f t="shared" ref="E17:E25" si="18">(B17-$B$16)/B17</f>
+        <v>0.15520096633735828</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" ref="F17:F25" si="19">(C17-$C$16)/C17</f>
+        <v>0.10910525666499454</v>
+      </c>
+      <c r="G17" s="11">
         <v>731</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10">
+      <c r="J17" s="10">
         <v>368.36565857527199</v>
       </c>
-      <c r="I17" s="10">
+      <c r="K17" s="10">
         <v>332.75463165067401</v>
       </c>
-      <c r="J17" s="14">
-        <f t="shared" ref="J17:J25" si="6">1-0.5*($H$16/H17+$I$16/I17)</f>
+      <c r="L17" s="14">
+        <f t="shared" si="15"/>
         <v>0.3194174355339322</v>
       </c>
-      <c r="K17" s="11">
+      <c r="M17" s="16">
+        <f t="shared" ref="M17:M25" si="20">(J17-$J$16)/J17</f>
+        <v>0.25905509151309331</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" ref="N17:N25" si="21">(K17-$K$16)/K17</f>
+        <v>0.37977977955477099</v>
+      </c>
+      <c r="O17" s="11">
         <v>731</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10" t="s">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="10">
+      <c r="R17" s="10">
         <v>968.48136204800505</v>
       </c>
-      <c r="O17" s="10">
+      <c r="S17" s="10">
         <v>779.81415741784201</v>
       </c>
-      <c r="P17" s="14">
-        <f t="shared" ref="P17:P25" si="7">1-0.5*($N$16/N17+$O$16/O17)</f>
+      <c r="T17" s="16">
+        <f t="shared" ref="T17:T25" si="22">(R17-$R$16)/R17</f>
+        <v>0.11628751600785957</v>
+      </c>
+      <c r="U17" s="32">
+        <f t="shared" ref="U17:U25" si="23">(S17-$S$16)/S17</f>
+        <v>0.1229054234199084</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" ref="V17:V25" si="24">1-0.5*($R$16/R17+$S$16/S17)</f>
         <v>0.11959646971388405</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="W17" s="11">
         <v>729</v>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="10">
-        <v>7531.3097561351897</v>
-      </c>
-      <c r="U17" s="10">
-        <v>3429.9285714285702</v>
-      </c>
-      <c r="V17" s="14">
-        <f t="shared" ref="V17:V25" si="8">1-0.5*($T$16/T17+$U$16/U17)</f>
-        <v>-5.4023553683588688E-3</v>
-      </c>
-      <c r="W17" s="11">
-        <v>733</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z17" s="10">
-        <v>2943.6150249085099</v>
+        <v>7531.3097561351897</v>
       </c>
       <c r="AA17" s="10">
-        <v>2423.6292567751002</v>
+        <v>3429.9285714285702</v>
       </c>
       <c r="AB17" s="14">
-        <f t="shared" ref="AB17:AB25" si="9">1-0.5*($Z$16/Z17+$AA$16/AA17)</f>
-        <v>0.50083335518957717</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>730</v>
+        <f t="shared" ref="AB17:AB25" si="25">1-0.5*($Z$16/Z17+$AA$16/AA17)</f>
+        <v>-5.4023553683588688E-3</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" ref="AC17:AC25" si="26">(Z17-$Z$16)/Z17</f>
+        <v>0.17562794186386893</v>
+      </c>
+      <c r="AD17" s="14">
+        <f t="shared" si="16"/>
+        <v>0.13545754319335279</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>733</v>
+      </c>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>3108</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>2486.1799999999998</v>
+      </c>
+      <c r="AJ17" s="14">
+        <f t="shared" ref="AJ17:AJ25" si="27">1-0.5*($AH$16/AH17+$AI$16/AI17)</f>
+        <v>0.52038183787590531</v>
+      </c>
+      <c r="AK17" s="16">
+        <f t="shared" ref="AK17:AK25" si="28">(AH17-$AH$16)/AH17</f>
+        <v>0.52256057116038934</v>
+      </c>
+      <c r="AL17" s="16">
+        <f t="shared" ref="AL17:AL25" si="29">(AI17-$AI$16)/AI17</f>
+        <v>0.51820310459142138</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -12648,82 +13243,122 @@
         <v>330.86894093362798</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.12201769394740247</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="16">
+        <f t="shared" si="18"/>
+        <v>0.19685371502904475</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="19"/>
+        <v>4.718167286576018E-2</v>
+      </c>
+      <c r="G18" s="11">
         <v>730</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="10">
+      <c r="J18" s="10">
         <v>395.23834254688097</v>
       </c>
-      <c r="I18" s="10">
+      <c r="K18" s="10">
         <v>334.38274098294102</v>
       </c>
-      <c r="J18" s="14">
-        <f t="shared" si="6"/>
+      <c r="L18" s="14">
+        <f t="shared" si="15"/>
         <v>0.34611618578455061</v>
       </c>
-      <c r="K18" s="11">
+      <c r="M18" s="16">
+        <f t="shared" si="20"/>
+        <v>0.30943274019422962</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="21"/>
+        <v>0.38279963137487166</v>
+      </c>
+      <c r="O18" s="11">
         <v>729</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="10">
+      <c r="R18" s="10">
         <v>1208.44803013104</v>
       </c>
-      <c r="O18" s="10">
+      <c r="S18" s="10">
         <v>1011.35954521638</v>
       </c>
-      <c r="P18" s="14">
-        <f t="shared" si="7"/>
+      <c r="T18" s="16">
+        <f t="shared" si="22"/>
+        <v>0.29177006473110179</v>
+      </c>
+      <c r="U18" s="32">
+        <f t="shared" si="23"/>
+        <v>0.32371156089180159</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="24"/>
         <v>0.3077408128114516</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="W18" s="11">
         <v>731</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="10">
-        <v>7546.9339357523204</v>
-      </c>
-      <c r="U18" s="10">
-        <v>3855.4487037275499</v>
-      </c>
-      <c r="V18" s="14">
-        <f t="shared" si="8"/>
-        <v>6.0923382962747352E-2</v>
-      </c>
-      <c r="W18" s="11">
-        <v>729</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>7546.9339357523204</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>3855.4487037275499</v>
+      </c>
+      <c r="AB18" s="14">
+        <f t="shared" si="25"/>
+        <v>6.0923382962747352E-2</v>
+      </c>
+      <c r="AC18" s="16">
+        <f t="shared" si="26"/>
+        <v>0.17733461337011402</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="16"/>
+        <v>0.23087580676479472</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>729</v>
+      </c>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AH18" s="10">
         <v>2943.6150249085099</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AI18" s="10">
         <v>2423.6292567751002</v>
       </c>
-      <c r="AB18" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ18" s="14">
+        <f t="shared" si="27"/>
         <v>0.50083335518957717</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AK18" s="16">
+        <f t="shared" si="28"/>
+        <v>0.49589816185979335</v>
+      </c>
+      <c r="AL18" s="16">
+        <f t="shared" si="29"/>
+        <v>0.50576854851936104</v>
+      </c>
+      <c r="AM18" s="11">
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -12734,82 +13369,122 @@
         <v>431.337916763978</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.27787165975989481</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="16">
+        <f t="shared" si="18"/>
+        <v>0.28662734002560042</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="19"/>
+        <v>0.26911597949418919</v>
+      </c>
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="10">
+      <c r="J19" s="10">
         <v>435.902108415687</v>
       </c>
-      <c r="I19" s="10">
+      <c r="K19" s="10">
         <v>337.08816092354903</v>
       </c>
-      <c r="J19" s="14">
-        <f t="shared" si="6"/>
+      <c r="L19" s="14">
+        <f t="shared" si="15"/>
         <v>0.38080325395408865</v>
       </c>
-      <c r="K19" s="11">
+      <c r="M19" s="16">
+        <f t="shared" si="20"/>
+        <v>0.37385331726247817</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="21"/>
+        <v>0.38775319064569913</v>
+      </c>
+      <c r="O19" s="11">
         <v>732</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10" t="s">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="10">
+      <c r="R19" s="10">
         <v>1281.02071625484</v>
       </c>
-      <c r="O19" s="10">
+      <c r="S19" s="10">
         <v>1025.76534345087</v>
       </c>
-      <c r="P19" s="14">
-        <f t="shared" si="7"/>
+      <c r="T19" s="16">
+        <f t="shared" si="22"/>
+        <v>0.33189287316312716</v>
+      </c>
+      <c r="U19" s="32">
+        <f t="shared" si="23"/>
+        <v>0.33320932260144887</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="24"/>
         <v>0.33255109788228809</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="W19" s="11">
         <v>730</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="10">
-        <v>7761.9061756679503</v>
-      </c>
-      <c r="U19" s="10">
-        <v>3754.0134207475398</v>
-      </c>
-      <c r="V19" s="14">
-        <f t="shared" si="8"/>
-        <v>5.805567349147156E-2</v>
-      </c>
-      <c r="W19" s="11">
-        <v>1</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>7761.9061756679503</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>3754.0134207475398</v>
+      </c>
+      <c r="AB19" s="14">
+        <f t="shared" si="25"/>
+        <v>5.805567349147156E-2</v>
+      </c>
+      <c r="AC19" s="16">
+        <f t="shared" si="26"/>
+        <v>0.20011899350334403</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="16"/>
+        <v>0.21009369401143926</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="AH19" s="10">
         <v>3199.3155024299299</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AI19" s="10">
         <v>2873.6882922483801</v>
       </c>
-      <c r="AB19" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ19" s="14">
+        <f t="shared" si="27"/>
         <v>0.55967986059747266</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AK19" s="16">
+        <f t="shared" si="28"/>
+        <v>0.53618774275107317</v>
+      </c>
+      <c r="AL19" s="16">
+        <f t="shared" si="29"/>
+        <v>0.58317197844387214</v>
+      </c>
+      <c r="AM19" s="11">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -12820,82 +13495,122 @@
         <v>446.40750540676402</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.31546586623398243</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="16">
+        <f t="shared" si="18"/>
+        <v>0.33714295647907483</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="19"/>
+        <v>0.29378877598889003</v>
+      </c>
+      <c r="G20" s="11">
         <v>365</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="10">
+      <c r="J20" s="10">
         <v>457.41485991897298</v>
       </c>
-      <c r="I20" s="10">
+      <c r="K20" s="10">
         <v>394.61584439188903</v>
       </c>
-      <c r="J20" s="14">
-        <f t="shared" si="6"/>
+      <c r="L20" s="14">
+        <f t="shared" si="15"/>
         <v>0.4401545806609779</v>
       </c>
-      <c r="K20" s="11">
+      <c r="M20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.40330172213661203</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="21"/>
+        <v>0.47700743918534361</v>
+      </c>
+      <c r="O20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10" t="s">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="10">
+      <c r="R20" s="10">
         <v>1370.7614423959701</v>
       </c>
-      <c r="O20" s="10">
+      <c r="S20" s="10">
         <v>1092.29779293148</v>
       </c>
-      <c r="P20" s="14">
-        <f t="shared" si="7"/>
+      <c r="T20" s="16">
+        <f t="shared" si="22"/>
+        <v>0.37563237213649092</v>
+      </c>
+      <c r="U20" s="32">
+        <f t="shared" si="23"/>
+        <v>0.37382390348337119</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="24"/>
         <v>0.37472813780993108</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="W20" s="11">
         <v>365</v>
-      </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="10">
-        <v>7929.2872435297704</v>
-      </c>
-      <c r="U20" s="10">
-        <v>2590.5923433779099</v>
-      </c>
-      <c r="V20" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.17691289414255662</v>
-      </c>
-      <c r="W20" s="11">
-        <v>730</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>7929.2872435297704</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>2590.5923433779099</v>
+      </c>
+      <c r="AB20" s="14">
+        <f t="shared" si="25"/>
+        <v>-0.17691289414255662</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="26"/>
+        <v>0.21700385754191784</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.14464897628302598</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>730</v>
+      </c>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="AH20" s="10">
         <v>3479.5513824396498</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AI20" s="10">
         <v>3114.3018695566202</v>
       </c>
-      <c r="AB20" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ20" s="14">
+        <f t="shared" si="27"/>
         <v>0.5944593425706014</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AK20" s="16">
+        <f t="shared" si="28"/>
+        <v>0.57354222376992103</v>
+      </c>
+      <c r="AL20" s="16">
+        <f t="shared" si="29"/>
+        <v>0.61537646137128177</v>
+      </c>
+      <c r="AM20" s="11">
         <v>731</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -12906,82 +13621,122 @@
         <v>429.65165492466502</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.33196734887970258</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="16">
+        <f t="shared" si="18"/>
+        <v>0.3976872323710412</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="19"/>
+        <v>0.26624746538836386</v>
+      </c>
+      <c r="G21" s="11">
         <v>732</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>486.52482305196997</v>
       </c>
-      <c r="I21" s="10">
+      <c r="K21" s="10">
         <v>374.488798858976</v>
       </c>
-      <c r="J21" s="14">
-        <f t="shared" si="6"/>
+      <c r="L21" s="14">
+        <f t="shared" si="15"/>
         <v>0.44395131620269279</v>
       </c>
-      <c r="K21" s="11">
+      <c r="M21" s="16">
+        <f t="shared" si="20"/>
+        <v>0.4390036309542647</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="21"/>
+        <v>0.44889900145112088</v>
+      </c>
+      <c r="O21" s="11">
         <v>365</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="10" t="s">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="10">
+      <c r="R21" s="10">
         <v>1402.0068576579399</v>
       </c>
-      <c r="O21" s="10">
+      <c r="S21" s="10">
         <v>1284.69419328036</v>
       </c>
-      <c r="P21" s="14">
-        <f t="shared" si="7"/>
+      <c r="T21" s="16">
+        <f t="shared" si="22"/>
+        <v>0.3895471584316989</v>
+      </c>
+      <c r="U21" s="32">
+        <f t="shared" si="23"/>
+        <v>0.46760032715248717</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="24"/>
         <v>0.42857374279209304</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="W21" s="11">
         <v>1</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="10">
-        <v>7940.5109332921202</v>
-      </c>
-      <c r="U21" s="10">
-        <v>2965.3188738141698</v>
-      </c>
-      <c r="V21" s="14">
-        <f t="shared" si="8"/>
-        <v>-7.7106867452604533E-2</v>
-      </c>
-      <c r="W21" s="11">
-        <v>732</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="Z21" s="10">
+        <v>7940.5109332921202</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>2965.3188738141698</v>
+      </c>
+      <c r="AB21" s="14">
+        <f t="shared" si="25"/>
+        <v>-7.7106867452604533E-2</v>
+      </c>
+      <c r="AC21" s="16">
+        <f t="shared" si="26"/>
+        <v>0.21811060065478483</v>
+      </c>
+      <c r="AD21" s="14">
+        <f>(AA21-$AA$21)/AA21</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>732</v>
+      </c>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH21" s="10">
         <v>4105.9206353486397</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AI21" s="10">
         <v>3313.4860316685299</v>
       </c>
-      <c r="AB21" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ21" s="14">
+        <f t="shared" si="27"/>
         <v>0.63854845465652244</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AK21" s="16">
+        <f t="shared" si="28"/>
+        <v>0.63859950626943573</v>
+      </c>
+      <c r="AL21" s="16">
+        <f t="shared" si="29"/>
+        <v>0.63849740304360902</v>
+      </c>
+      <c r="AM21" s="11">
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
@@ -12992,78 +13747,118 @@
         <v>470.894130220433</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.37448833324668029</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="16">
+        <f t="shared" si="18"/>
+        <v>0.41846471182847611</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="19"/>
+        <v>0.33051195466488453</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="10">
+      <c r="J22" s="10">
         <v>548.90408213566502</v>
       </c>
-      <c r="I22" s="10">
+      <c r="K22" s="10">
         <v>459.05616364047</v>
       </c>
-      <c r="J22" s="14">
-        <f t="shared" si="6"/>
+      <c r="L22" s="14">
+        <f t="shared" si="15"/>
         <v>0.52658998528020562</v>
       </c>
-      <c r="K22" s="11">
+      <c r="M22" s="16">
+        <f t="shared" si="20"/>
+        <v>0.50275709715834183</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="21"/>
+        <v>0.55042287340206919</v>
+      </c>
+      <c r="O22" s="11">
         <v>730</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="10" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="10">
+      <c r="R22" s="10">
         <v>1465.82177122754</v>
       </c>
-      <c r="O22" s="10">
+      <c r="S22" s="10">
         <v>1087.2857253428899</v>
       </c>
-      <c r="P22" s="14">
-        <f t="shared" si="7"/>
+      <c r="T22" s="16">
+        <f t="shared" si="22"/>
+        <v>0.41612337396326016</v>
+      </c>
+      <c r="U22" s="32">
+        <f t="shared" si="23"/>
+        <v>0.3709374157415119</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="24"/>
         <v>0.39353039485238606</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="10">
-        <v>7982.8210945631999</v>
-      </c>
-      <c r="U22" s="10">
-        <v>2568.6195728176699</v>
-      </c>
-      <c r="V22" s="14">
-        <f t="shared" si="8"/>
-        <v>-0.18100613907288521</v>
-      </c>
-      <c r="W22" s="11">
-        <v>731</v>
-      </c>
+      <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>7982.8210945631999</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>2568.6195728176699</v>
+      </c>
+      <c r="AB22" s="14">
+        <f t="shared" si="25"/>
+        <v>-0.18100613907288521</v>
+      </c>
+      <c r="AC22" s="16">
+        <f t="shared" si="26"/>
+        <v>0.2222547329346595</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" ref="AD22:AD25" si="30">(AA22-$AA$21)/AA22</f>
+        <v>-0.15444065956459918</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>731</v>
+      </c>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="AH22" s="10">
         <v>4227.3137191355599</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AI22" s="10">
         <v>3939.9341605050199</v>
       </c>
-      <c r="AB22" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ22" s="14">
+        <f t="shared" si="27"/>
         <v>0.67247690101109159</v>
       </c>
-      <c r="AC22" s="11">
+      <c r="AK22" s="16">
+        <f t="shared" si="28"/>
+        <v>0.64897761476360261</v>
+      </c>
+      <c r="AL22" s="16">
+        <f t="shared" si="29"/>
+        <v>0.69597618725858046</v>
+      </c>
+      <c r="AM22" s="11">
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
@@ -13074,78 +13869,118 @@
         <v>511.302048001971</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.40740474329029952</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="16">
+        <f t="shared" si="18"/>
+        <v>0.4313882623414223</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="19"/>
+        <v>0.38342122423917663</v>
+      </c>
+      <c r="G23" s="11">
         <v>729</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>572.05472677041905</v>
       </c>
-      <c r="I23" s="10">
+      <c r="K23" s="10">
         <v>561.48911627845405</v>
       </c>
-      <c r="J23" s="14">
-        <f t="shared" si="6"/>
+      <c r="L23" s="14">
+        <f t="shared" si="15"/>
         <v>0.57765989219424829</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="16">
+        <f t="shared" si="20"/>
+        <v>0.52288016091804512</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="21"/>
+        <v>0.63243962347045146</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="10">
+      <c r="R23" s="10">
         <v>1484.19597496243</v>
       </c>
-      <c r="O23" s="10">
+      <c r="S23" s="10">
         <v>1348.15643362179</v>
       </c>
-      <c r="P23" s="14">
-        <f t="shared" si="7"/>
+      <c r="T23" s="16">
+        <f t="shared" si="22"/>
+        <v>0.42335171056019155</v>
+      </c>
+      <c r="U23" s="32">
+        <f t="shared" si="23"/>
+        <v>0.49266216356354736</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="24"/>
         <v>0.45800693706186935</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23" s="10">
-        <v>8783.4855526423398</v>
-      </c>
-      <c r="U23" s="10">
-        <v>7011.0162496163202</v>
-      </c>
-      <c r="V23" s="14">
-        <f t="shared" si="8"/>
-        <v>0.35636208598686059</v>
-      </c>
-      <c r="W23" s="11">
-        <v>365</v>
-      </c>
+      <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>8783.4855526423398</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>7011.0162496163202</v>
+      </c>
+      <c r="AB23" s="14">
+        <f t="shared" si="25"/>
+        <v>0.35636208598686059</v>
+      </c>
+      <c r="AC23" s="16">
+        <f t="shared" si="26"/>
+        <v>0.29315061920285695</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="30"/>
+        <v>0.57704863770976889</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>365</v>
+      </c>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="AH23" s="10">
         <v>5214.5516880166497</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AI23" s="10">
         <v>4904.5537003589297</v>
       </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ23" s="14">
+        <f t="shared" si="27"/>
         <v>0.735602772209759</v>
       </c>
-      <c r="AC23" s="11">
+      <c r="AK23" s="16">
+        <f t="shared" si="28"/>
+        <v>0.71543445465435529</v>
+      </c>
+      <c r="AL23" s="16">
+        <f t="shared" si="29"/>
+        <v>0.75577108976516283</v>
+      </c>
+      <c r="AM23" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
@@ -13156,78 +13991,118 @@
         <v>659.142857142857</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.56332973220232341</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="16">
+        <f t="shared" si="18"/>
+        <v>0.60494423588436075</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="19"/>
+        <v>0.52171522852028618</v>
+      </c>
+      <c r="G24" s="11">
         <v>733</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="10">
+      <c r="J24" s="10">
         <v>773.19967160985698</v>
       </c>
-      <c r="I24" s="10">
+      <c r="K24" s="10">
         <v>694.63789296337302</v>
       </c>
-      <c r="J24" s="14">
-        <f t="shared" si="6"/>
+      <c r="L24" s="14">
+        <f t="shared" si="15"/>
         <v>0.67494748652063696</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="16">
+        <f t="shared" si="20"/>
+        <v>0.647001066859617</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="21"/>
+        <v>0.70289390618165692</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="10">
+      <c r="R24" s="10">
         <v>1489.9168396144401</v>
       </c>
-      <c r="O24" s="10">
+      <c r="S24" s="10">
         <v>1180.95500401088</v>
       </c>
-      <c r="P24" s="14">
-        <f t="shared" si="7"/>
+      <c r="T24" s="16">
+        <f t="shared" si="22"/>
+        <v>0.42556587898086123</v>
+      </c>
+      <c r="U24" s="32">
+        <f t="shared" si="23"/>
+        <v>0.42083249074808804</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="24"/>
         <v>0.42319918486447461</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="W24" s="11">
         <v>732</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="10">
-        <v>10329.470026589899</v>
-      </c>
-      <c r="U24" s="10">
-        <v>5423.5044366009497</v>
-      </c>
-      <c r="V24" s="14">
-        <f t="shared" si="8"/>
-        <v>0.32431002862197789</v>
-      </c>
-      <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>10329.470026589899</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>5423.5044366009497</v>
+      </c>
+      <c r="AB24" s="14">
+        <f t="shared" si="25"/>
+        <v>0.32431002862197789</v>
+      </c>
+      <c r="AC24" s="16">
+        <f t="shared" si="26"/>
+        <v>0.39894289754035378</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="30"/>
+        <v>0.45324671372950665</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="AH24" s="10">
         <v>6003.9478321708102</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AI24" s="10">
         <v>5182.4285714285697</v>
       </c>
-      <c r="AB24" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ24" s="14">
+        <f t="shared" si="27"/>
         <v>0.76085765538195393</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AK24" s="16">
+        <f t="shared" si="28"/>
+        <v>0.7528489943096337</v>
+      </c>
+      <c r="AL24" s="16">
+        <f t="shared" si="29"/>
+        <v>0.76886631645427406</v>
+      </c>
+      <c r="AM24" s="11">
         <v>733</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -13238,87 +14113,127 @@
         <v>1101.8406663388</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.71416866101747078</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10" t="s">
+      <c r="E25" s="16">
+        <f t="shared" si="18"/>
+        <v>0.71445672244570824</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="19"/>
+        <v>0.71388059958923333</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="10">
+      <c r="J25" s="10">
         <v>1927.0083771780301</v>
       </c>
-      <c r="I25" s="10">
+      <c r="K25" s="10">
         <v>1905.8571428571399</v>
       </c>
-      <c r="J25" s="14">
-        <f t="shared" si="6"/>
+      <c r="L25" s="14">
+        <f t="shared" si="15"/>
         <v>0.87503680904167858</v>
       </c>
-      <c r="K25" s="11">
+      <c r="M25" s="16">
+        <f t="shared" si="20"/>
+        <v>0.8583614568492568</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="21"/>
+        <v>0.89171216123410046</v>
+      </c>
+      <c r="O25" s="11">
         <v>733</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10" t="s">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="10">
+      <c r="R25" s="10">
         <v>1930.4699834866301</v>
       </c>
-      <c r="O25" s="10">
+      <c r="S25" s="10">
         <v>1682.5</v>
       </c>
-      <c r="P25" s="14">
-        <f t="shared" si="7"/>
+      <c r="T25" s="16">
+        <f t="shared" si="22"/>
+        <v>0.55665766498489488</v>
+      </c>
+      <c r="U25" s="32">
+        <f t="shared" si="23"/>
+        <v>0.59347948397529682</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="24"/>
         <v>0.57506857448009585</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="W25" s="11">
         <v>733</v>
       </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T25" s="10">
-        <v>11424.461735782401</v>
-      </c>
-      <c r="U25" s="10">
-        <v>5158.9482565096096</v>
-      </c>
-      <c r="V25" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33387589644950366</v>
-      </c>
-      <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>11424.461735782401</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>5158.9482565096096</v>
+      </c>
+      <c r="AB25" s="14">
+        <f t="shared" si="25"/>
+        <v>0.33387589644950366</v>
+      </c>
+      <c r="AC25" s="16">
+        <f t="shared" si="26"/>
+        <v>0.45655196124645292</v>
+      </c>
+      <c r="AD25" s="14">
+        <f t="shared" si="30"/>
+        <v>0.42520864207689957</v>
+      </c>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="AH25" s="10">
         <v>6285.8824565345503</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AI25" s="10">
         <v>4325.7536092145601</v>
       </c>
-      <c r="AB25" s="14">
-        <f t="shared" si="9"/>
+      <c r="AJ25" s="14">
+        <f t="shared" si="27"/>
         <v>0.74351333830358268</v>
       </c>
-      <c r="AC25" s="11"/>
+      <c r="AK25" s="16">
+        <f t="shared" si="28"/>
+        <v>0.76393422004082712</v>
+      </c>
+      <c r="AL25" s="16">
+        <f t="shared" si="29"/>
+        <v>0.72309245656633825</v>
+      </c>
+      <c r="AM25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="AG14:AM14"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13326,38 +14241,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALZ24"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X12"/>
+      <selection activeCell="AH16" sqref="AH16:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="7.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="7.5703125" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.5703125" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1014" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -13365,44 +14282,44 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
-        <v>2</v>
-      </c>
+      <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="O1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
-      <c r="U1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
       <c r="Y1" s="34"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10"/>
@@ -14382,8 +15299,18 @@
       <c r="ALX1" s="10"/>
       <c r="ALY1" s="10"/>
       <c r="ALZ1" s="10"/>
+      <c r="AMA1" s="10"/>
+      <c r="AMB1" s="10"/>
+      <c r="AMC1" s="10"/>
+      <c r="AMD1" s="10"/>
+      <c r="AME1" s="10"/>
+      <c r="AMF1" s="10"/>
+      <c r="AMG1" s="10"/>
+      <c r="AMH1" s="10"/>
+      <c r="AMI1" s="10"/>
+      <c r="AMJ1" s="10"/>
     </row>
-    <row r="2" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -14394,70 +15321,88 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="S2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
@@ -15437,8 +16382,18 @@
       <c r="ALX2" s="10"/>
       <c r="ALY2" s="10"/>
       <c r="ALZ2" s="10"/>
+      <c r="AMA2" s="10"/>
+      <c r="AMB2" s="10"/>
+      <c r="AMC2" s="10"/>
+      <c r="AMD2" s="10"/>
+      <c r="AME2" s="10"/>
+      <c r="AMF2" s="10"/>
+      <c r="AMG2" s="10"/>
+      <c r="AMH2" s="10"/>
+      <c r="AMI2" s="10"/>
+      <c r="AMJ2" s="10"/>
     </row>
-    <row r="3" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -15448,82 +16403,115 @@
       <c r="C3" s="3">
         <v>731.28771903127995</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D12" si="0">1-0.5*($B$11/B3+$C$11/C3)</f>
+        <v>0.1278326889610083</v>
+      </c>
+      <c r="E3" s="14">
+        <f>(B3-$B$11)/B3</f>
+        <v>0.12219870437589739</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(C3-$C$11)/C3</f>
+        <v>0.13346667354611921</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10">
+      <c r="I3" s="18">
         <v>436.72424622125601</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="18">
         <v>364.28591578766901</v>
       </c>
-      <c r="I3" s="14">
-        <f>1-0.5*($G$3/G3+$H$3/H3)</f>
+      <c r="K3" s="14">
+        <f>1-0.5*($I$3/I3+$J$3/J3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="L3" s="14">
+        <f>(I3-$I$3)/I3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <f>(J3-$J$3)/J3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
         <v>614</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="10">
+      <c r="P3" s="18">
         <v>465.61688167418401</v>
       </c>
-      <c r="M3" s="10">
+      <c r="Q3" s="18">
         <v>370.72064213753998</v>
       </c>
-      <c r="N3" s="14">
-        <f>1-0.5*($L$3/L3+$M$3/M3)</f>
+      <c r="R3" s="14">
+        <f>1-0.5*($P$3/P3+$Q$3/Q3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="11">
+      <c r="S3" s="14">
+        <f>(P3-$P$3)/P3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <f>(Q3-$Q$3)/Q3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
         <v>352</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="W3" s="18">
         <v>699.00719193145096</v>
       </c>
-      <c r="R3" s="10">
+      <c r="X3" s="18">
         <v>613.92142875437196</v>
       </c>
-      <c r="S3" s="14">
-        <f>1-0.5*($Q$3/Q3+$R$3/R3)</f>
+      <c r="Y3" s="14">
+        <f>1-0.5*($W$3/W3+$X$3/X3)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="11">
+      <c r="Z3" s="14">
+        <f>(W3-$W$3)/W3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <f>(X3-$X$3)/X3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11">
         <v>130</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="10">
-        <v>173.51</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="AD3" s="18">
+        <v>273.51</v>
+      </c>
+      <c r="AE3" s="10">
         <v>235.88</v>
       </c>
-      <c r="X3" s="13">
-        <f>1-0.5*($V$4/V3+$W$4/W3)</f>
-        <v>6.8639321537014686E-2</v>
-      </c>
-      <c r="Y3" s="11">
+      <c r="AF3" s="13">
+        <f>1-0.5*($AD$4/AD3+$AE$4/AE3)</f>
+        <v>0.28991900287962702</v>
+      </c>
+      <c r="AG3" s="13">
+        <f>(AD3-$AD$4)/AD3</f>
+        <v>0.23211524980486634</v>
+      </c>
+      <c r="AH3" s="13">
+        <f>(AE3-$AE$4)/AE3</f>
+        <v>0.34772275595438779</v>
+      </c>
+      <c r="AI3" s="11">
         <v>731</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
@@ -16503,8 +17491,18 @@
       <c r="ALX3" s="10"/>
       <c r="ALY3" s="10"/>
       <c r="ALZ3" s="10"/>
+      <c r="AMA3" s="10"/>
+      <c r="AMB3" s="10"/>
+      <c r="AMC3" s="10"/>
+      <c r="AMD3" s="10"/>
+      <c r="AME3" s="10"/>
+      <c r="AMF3" s="10"/>
+      <c r="AMG3" s="10"/>
+      <c r="AMH3" s="10"/>
+      <c r="AMI3" s="10"/>
+      <c r="AMJ3" s="10"/>
     </row>
-    <row r="4" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -16514,80 +17512,113 @@
       <c r="C4" s="7">
         <v>731.28771903127995</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1278326889610083</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E12" si="1">(B4-$B$11)/B4</f>
+        <v>0.12219870437589739</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F12" si="2">(C4-$C$11)/C4</f>
+        <v>0.13346667354611921</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="10">
         <v>592.86802840571795</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>478.50589134321501</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:I12" si="0">1-0.5*($G$3/G4+$H$3/H4)</f>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K12" si="3">1-0.5*($I$3/I4+$J$3/J4)</f>
         <v>0.25103575636136277</v>
       </c>
-      <c r="J4" s="11">
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L12" si="4">(I4-$I$3)/I4</f>
+        <v>0.26337021850267139</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:M12" si="5">(J4-$J$3)/J4</f>
+        <v>0.23870129422005409</v>
+      </c>
+      <c r="N4" s="11">
         <v>731</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10">
+      <c r="P4" s="10">
         <v>477.82278404221</v>
       </c>
-      <c r="M4" s="10">
+      <c r="Q4" s="10">
         <v>385.61787817454098</v>
       </c>
-      <c r="N4" s="14">
-        <f t="shared" ref="N4:N12" si="1">1-0.5*($L$3/L4+$M$3/M4)</f>
+      <c r="R4" s="14">
+        <f t="shared" ref="R4:R12" si="6">1-0.5*($P$3/P4+$Q$3/Q4)</f>
         <v>3.2088475467981992E-2</v>
       </c>
-      <c r="O4" s="11">
+      <c r="S4" s="14">
+        <f t="shared" ref="S4:S12" si="7">(P4-$P$3)/P4</f>
+        <v>2.5544831212878583E-2</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" ref="T4:T12" si="8">(Q4-$Q$3)/Q4</f>
+        <v>3.8632119723085313E-2</v>
+      </c>
+      <c r="U4" s="11">
         <v>365</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="W4" s="10">
         <v>772.81699657655702</v>
       </c>
-      <c r="R4" s="10">
+      <c r="X4" s="10">
         <v>617.68733496794698</v>
       </c>
-      <c r="S4" s="14">
-        <f>1-0.5*($Q$3/Q4+$R$3/R4)</f>
+      <c r="Y4" s="14">
+        <f>1-0.5*($W$3/W4+$X$3/X4)</f>
         <v>5.0802132479920159E-2</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="10" t="s">
+      <c r="Z4" s="14">
+        <f t="shared" ref="Z4:Z12" si="9">(W4-$W$3)/W4</f>
+        <v>9.5507481036352038E-2</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" ref="AA4:AA12" si="10">(X4-$X$3)/X4</f>
+        <v>6.0967839234884781E-3</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="10">
+      <c r="AD4" s="10">
         <v>210.024158025871</v>
       </c>
-      <c r="W4" s="10">
+      <c r="AE4" s="18">
         <v>153.85915632547901</v>
       </c>
-      <c r="X4" s="13">
-        <f t="shared" ref="X4:X12" si="2">1-0.5*($V$4/V4+$W$4/W4)</f>
+      <c r="AF4" s="13">
+        <f t="shared" ref="AF4:AF12" si="11">1-0.5*($AD$4/AD4+$AE$4/AE4)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="AG4" s="13">
+        <f>(AD4-$AD$4)/AD4</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="13">
+        <f>(AE4-$AE$4)/AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="11">
         <v>731</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
@@ -17567,8 +18598,18 @@
       <c r="ALX4" s="10"/>
       <c r="ALY4" s="10"/>
       <c r="ALZ4" s="10"/>
+      <c r="AMA4" s="10"/>
+      <c r="AMB4" s="10"/>
+      <c r="AMC4" s="10"/>
+      <c r="AMD4" s="10"/>
+      <c r="AME4" s="10"/>
+      <c r="AMF4" s="10"/>
+      <c r="AMG4" s="10"/>
+      <c r="AMH4" s="10"/>
+      <c r="AMI4" s="10"/>
+      <c r="AMJ4" s="10"/>
     </row>
-    <row r="5" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17578,88 +18619,121 @@
       <c r="C5" s="3">
         <v>875.82961600167403</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.28502357255010113</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29357278089673683</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.27647436420346538</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10">
+      <c r="I5" s="10">
         <v>640.28495851052503</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
         <v>532.14924377807199</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="0"/>
+      <c r="K5" s="14">
+        <f t="shared" si="3"/>
         <v>0.3166830688501292</v>
       </c>
-      <c r="J5" s="11">
+      <c r="L5" s="14">
+        <f t="shared" si="4"/>
+        <v>0.31792205889516123</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="5"/>
+        <v>0.31544407880509712</v>
+      </c>
+      <c r="N5" s="11">
         <v>365</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="10">
+      <c r="P5" s="10">
         <v>585.76966266022805</v>
       </c>
-      <c r="M5" s="10">
+      <c r="Q5" s="10">
         <v>490.27523405554302</v>
       </c>
-      <c r="N5" s="14">
-        <f t="shared" si="1"/>
+      <c r="R5" s="14">
+        <f t="shared" si="6"/>
         <v>0.22448574602317739</v>
       </c>
-      <c r="O5" s="11">
+      <c r="S5" s="14">
+        <f t="shared" si="7"/>
+        <v>0.20511950113698171</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" si="8"/>
+        <v>0.2438519909093731</v>
+      </c>
+      <c r="U5" s="11">
         <v>731</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="W5" s="10">
         <v>853.15246882246697</v>
       </c>
-      <c r="R5" s="10">
+      <c r="X5" s="10">
         <v>680.82892668274405</v>
       </c>
-      <c r="S5" s="14">
-        <f>1-0.5*($Q$3/Q5+$R$3/R5)</f>
+      <c r="Y5" s="14">
+        <f>1-0.5*($W$3/W5+$X$3/X5)</f>
         <v>0.13947543692990527</v>
       </c>
-      <c r="T5" s="11">
+      <c r="Z5" s="14">
+        <f t="shared" si="9"/>
+        <v>0.18067729101665672</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" si="10"/>
+        <v>9.8273582843153739E-2</v>
+      </c>
+      <c r="AB5" s="11">
         <v>1</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="10">
+      <c r="AD5" s="10">
         <v>240.87588276168</v>
       </c>
-      <c r="W5" s="10">
+      <c r="AE5" s="10">
         <v>198.90425327846</v>
       </c>
-      <c r="X5" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF5" s="13">
+        <f t="shared" si="11"/>
         <v>0.17727382569081618</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="AG5" s="13">
+        <f t="shared" ref="AG5:AG12" si="12">(AD5-$AD$4)/AD5</f>
+        <v>0.12808141845538501</v>
+      </c>
+      <c r="AH5" s="13">
+        <f t="shared" ref="AH5:AH11" si="13">(AE5-$AE$4)/AE5</f>
+        <v>0.22646623292624724</v>
+      </c>
+      <c r="AI5" s="11">
         <v>732</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="18">
-        <v>273.51</v>
-      </c>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
+      <c r="AM5" s="18">
+        <v>273.51</v>
+      </c>
       <c r="AN5" s="10"/>
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
@@ -18635,8 +19709,18 @@
       <c r="ALX5" s="10"/>
       <c r="ALY5" s="10"/>
       <c r="ALZ5" s="10"/>
+      <c r="AMA5" s="10"/>
+      <c r="AMB5" s="10"/>
+      <c r="AMC5" s="10"/>
+      <c r="AMD5" s="10"/>
+      <c r="AME5" s="10"/>
+      <c r="AMF5" s="10"/>
+      <c r="AMG5" s="10"/>
+      <c r="AMH5" s="10"/>
+      <c r="AMI5" s="10"/>
+      <c r="AMJ5" s="10"/>
     </row>
-    <row r="6" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -18646,86 +19730,119 @@
       <c r="C6" s="3">
         <v>1022.71428571429</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3939486121010829</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.40750837916365529</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
+        <v>0.3803888450385105</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10">
+      <c r="I6" s="10">
         <v>645.98217051560198</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="10">
         <v>429.62938581194197</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" si="0"/>
+      <c r="K6" s="14">
+        <f t="shared" si="3"/>
         <v>0.23801513092566351</v>
       </c>
-      <c r="J6" s="11">
+      <c r="L6" s="14">
+        <f t="shared" si="4"/>
+        <v>0.32393761599847731</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.15209264585284957</v>
+      </c>
+      <c r="N6" s="11">
         <v>732</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="10">
+      <c r="P6" s="10">
         <v>602.50371113207598</v>
       </c>
-      <c r="M6" s="10">
+      <c r="Q6" s="10">
         <v>493.71233258928601</v>
       </c>
-      <c r="N6" s="14">
-        <f t="shared" si="1"/>
+      <c r="R6" s="14">
+        <f t="shared" si="6"/>
         <v>0.23815637851112503</v>
       </c>
-      <c r="O6" s="11">
+      <c r="S6" s="14">
+        <f t="shared" si="7"/>
+        <v>0.22719665776114156</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="8"/>
+        <v>0.24911609926110859</v>
+      </c>
+      <c r="U6" s="11">
         <v>732</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="W6" s="10">
         <v>856.37857493585796</v>
       </c>
-      <c r="R6" s="10">
+      <c r="X6" s="10">
         <v>689.17008084596796</v>
       </c>
-      <c r="S6" s="14">
-        <f t="shared" ref="S6:S12" si="3">1-0.5*($Q$3/Q6+$R$3/R6)</f>
+      <c r="Y6" s="14">
+        <f t="shared" ref="Y6:Y12" si="14">1-0.5*($W$3/W6+$X$3/X6)</f>
         <v>0.14647557408726741</v>
       </c>
-      <c r="T6" s="11">
+      <c r="Z6" s="14">
+        <f t="shared" si="9"/>
+        <v>0.18376380214345506</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="10"/>
+        <v>0.10918734603107988</v>
+      </c>
+      <c r="AB6" s="11">
         <v>365</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="AC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="10">
+      <c r="AD6" s="10">
         <v>280.997428749618</v>
       </c>
-      <c r="W6" s="10">
+      <c r="AE6" s="10">
         <v>245.564552240246</v>
       </c>
-      <c r="X6" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF6" s="13">
+        <f t="shared" si="11"/>
         <v>0.31301171714011722</v>
       </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="26">
-        <v>235.88</v>
-      </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
+      <c r="AG6" s="13">
+        <f t="shared" si="12"/>
+        <v>0.25257622832907678</v>
+      </c>
+      <c r="AH6" s="13">
+        <f t="shared" si="13"/>
+        <v>0.37344720595115777</v>
+      </c>
+      <c r="AI6" s="11"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
+      <c r="AM6" s="26">
+        <v>235.88</v>
+      </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
@@ -19701,8 +20818,18 @@
       <c r="ALX6" s="10"/>
       <c r="ALY6" s="10"/>
       <c r="ALZ6" s="10"/>
+      <c r="AMA6" s="10"/>
+      <c r="AMB6" s="10"/>
+      <c r="AMC6" s="10"/>
+      <c r="AMD6" s="10"/>
+      <c r="AME6" s="10"/>
+      <c r="AMF6" s="10"/>
+      <c r="AMG6" s="10"/>
+      <c r="AMH6" s="10"/>
+      <c r="AMI6" s="10"/>
+      <c r="AMJ6" s="10"/>
     </row>
-    <row r="7" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -19712,80 +20839,113 @@
       <c r="C7" s="3">
         <v>1029.41070939258</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.39915084756099972</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.4138822151080036</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.38441948001399567</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="10">
+      <c r="I7" s="10">
         <v>662.05760432869704</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>571.96928676485402</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" si="0"/>
+      <c r="K7" s="14">
+        <f t="shared" si="3"/>
         <v>0.35172770656162378</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34035310014439163</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="5"/>
+        <v>0.36310231297885592</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="10">
+      <c r="P7" s="10">
         <v>606.42679074397495</v>
       </c>
-      <c r="M7" s="10">
+      <c r="Q7" s="10">
         <v>534.10884206635603</v>
       </c>
-      <c r="N7" s="14">
-        <f t="shared" si="1"/>
+      <c r="R7" s="14">
+        <f t="shared" si="6"/>
         <v>0.26905205821437739</v>
       </c>
-      <c r="O7" s="11">
+      <c r="S7" s="14">
+        <f t="shared" si="7"/>
+        <v>0.23219605601039309</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="8"/>
+        <v>0.30590806041836172</v>
+      </c>
+      <c r="U7" s="11">
         <v>729</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="V7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="W7" s="10">
         <v>904.61627855478298</v>
       </c>
-      <c r="R7" s="10">
+      <c r="X7" s="10">
         <v>804.42327091149798</v>
       </c>
-      <c r="S7" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y7" s="14">
+        <f t="shared" si="14"/>
         <v>0.23205332357272557</v>
       </c>
-      <c r="T7" s="11">
+      <c r="Z7" s="14">
+        <f t="shared" si="9"/>
+        <v>0.22728873169496083</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="10"/>
+        <v>0.23681791545049036</v>
+      </c>
+      <c r="AB7" s="11">
         <v>731</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="AC7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="10">
+      <c r="AD7" s="10">
         <v>348.32531558645798</v>
       </c>
-      <c r="W7" s="10">
+      <c r="AE7" s="10">
         <v>283.42427772568698</v>
       </c>
-      <c r="X7" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF7" s="13">
+        <f t="shared" si="11"/>
         <v>0.42709394260215361</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="AG7" s="13">
+        <f t="shared" si="12"/>
+        <v>0.39704595495086598</v>
+      </c>
+      <c r="AH7" s="13">
+        <f t="shared" si="13"/>
+        <v>0.4571419302534413</v>
+      </c>
+      <c r="AI7" s="11">
         <v>730</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
@@ -20765,8 +21925,18 @@
       <c r="ALX7" s="10"/>
       <c r="ALY7" s="10"/>
       <c r="ALZ7" s="10"/>
+      <c r="AMA7" s="10"/>
+      <c r="AMB7" s="10"/>
+      <c r="AMC7" s="10"/>
+      <c r="AMD7" s="10"/>
+      <c r="AME7" s="10"/>
+      <c r="AMF7" s="10"/>
+      <c r="AMG7" s="10"/>
+      <c r="AMH7" s="10"/>
+      <c r="AMI7" s="10"/>
+      <c r="AMJ7" s="10"/>
     </row>
-    <row r="8" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -20776,80 +21946,113 @@
       <c r="C8" s="3">
         <v>1337.13729946954</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.52999636143156903</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.53390454928398279</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.52608817357915516</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10">
+      <c r="I8" s="10">
         <v>760.81699751013502</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="10">
         <v>582.46170261928</v>
       </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
+      <c r="K8" s="14">
+        <f t="shared" si="3"/>
         <v>0.40027761884763469</v>
       </c>
-      <c r="J8" s="11">
+      <c r="L8" s="14">
+        <f t="shared" si="4"/>
+        <v>0.42597990364241528</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="5"/>
+        <v>0.37457533405285415</v>
+      </c>
+      <c r="N8" s="11">
         <v>729</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="10">
+      <c r="P8" s="10">
         <v>627.60148497083605</v>
       </c>
-      <c r="M8" s="10">
+      <c r="Q8" s="10">
         <v>581.44859030446401</v>
       </c>
-      <c r="N8" s="14">
-        <f t="shared" si="1"/>
+      <c r="R8" s="14">
+        <f t="shared" si="6"/>
         <v>0.31025996694216507</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10" t="s">
+      <c r="S8" s="14">
+        <f t="shared" si="7"/>
+        <v>0.25810105166366726</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="8"/>
+        <v>0.36241888222066293</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="W8" s="10">
         <v>1048.4462557638301</v>
       </c>
-      <c r="R8" s="10">
+      <c r="X8" s="10">
         <v>756.78887067522305</v>
       </c>
-      <c r="S8" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y8" s="14">
+        <f t="shared" si="14"/>
         <v>0.2610367041747943</v>
       </c>
-      <c r="T8" s="11">
+      <c r="Z8" s="14">
+        <f t="shared" si="9"/>
+        <v>0.33329229983066749</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="10"/>
+        <v>0.18878110851892119</v>
+      </c>
+      <c r="AB8" s="11">
         <v>732</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="10">
+      <c r="AD8" s="10">
         <v>388.64045209231898</v>
       </c>
-      <c r="W8" s="10">
+      <c r="AE8" s="10">
         <v>348.38255283569202</v>
       </c>
-      <c r="X8" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF8" s="13">
+        <f t="shared" si="11"/>
         <v>0.50897706158415268</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="AG8" s="13">
+        <f t="shared" si="12"/>
+        <v>0.45959264689209156</v>
+      </c>
+      <c r="AH8" s="13">
+        <f t="shared" si="13"/>
+        <v>0.55836147627621369</v>
+      </c>
+      <c r="AI8" s="11">
         <v>1</v>
       </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
@@ -21829,8 +23032,18 @@
       <c r="ALX8" s="10"/>
       <c r="ALY8" s="10"/>
       <c r="ALZ8" s="10"/>
+      <c r="AMA8" s="10"/>
+      <c r="AMB8" s="10"/>
+      <c r="AMC8" s="10"/>
+      <c r="AMD8" s="10"/>
+      <c r="AME8" s="10"/>
+      <c r="AMF8" s="10"/>
+      <c r="AMG8" s="10"/>
+      <c r="AMH8" s="10"/>
+      <c r="AMI8" s="10"/>
+      <c r="AMJ8" s="10"/>
     </row>
-    <row r="9" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -21840,80 +23053,113 @@
       <c r="C9" s="3">
         <v>2372.4077528573598</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.72198981133959517</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="1"/>
+        <v>0.71108597444516619</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.73289364823402425</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10">
+      <c r="I9" s="10">
         <v>917.35086937772496</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>822.53470711156206</v>
       </c>
-      <c r="I9" s="14">
-        <f t="shared" si="0"/>
+      <c r="K9" s="14">
+        <f t="shared" si="3"/>
         <v>0.54052338466605343</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="14">
+        <f t="shared" si="4"/>
+        <v>0.52392889046096047</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="5"/>
+        <v>0.55711787887114628</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="10">
+      <c r="P9" s="10">
         <v>656.22213587385704</v>
       </c>
-      <c r="M9" s="10">
+      <c r="Q9" s="10">
         <v>554.436051062959</v>
       </c>
-      <c r="N9" s="14">
-        <f t="shared" si="1"/>
+      <c r="R9" s="14">
+        <f t="shared" si="6"/>
         <v>0.31090694375573702</v>
       </c>
-      <c r="O9" s="11">
+      <c r="S9" s="14">
+        <f t="shared" si="7"/>
+        <v>0.29045843439257635</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="8"/>
+        <v>0.33135545311889758</v>
+      </c>
+      <c r="U9" s="11">
         <v>730</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="V9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="W9" s="10">
         <v>1378.03924704467</v>
       </c>
-      <c r="R9" s="10">
+      <c r="X9" s="10">
         <v>1091.77173514026</v>
       </c>
-      <c r="S9" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y9" s="14">
+        <f t="shared" si="14"/>
         <v>0.46521784005211475</v>
       </c>
-      <c r="T9" s="11">
+      <c r="Z9" s="14">
+        <f t="shared" si="9"/>
+        <v>0.49275233384641604</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="10"/>
+        <v>0.4376833462578133</v>
+      </c>
+      <c r="AB9" s="11">
         <v>729</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="AC9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="10">
+      <c r="AD9" s="10">
         <v>400.24574187526503</v>
       </c>
-      <c r="W9" s="10">
+      <c r="AE9" s="10">
         <v>332.296253987721</v>
       </c>
-      <c r="X9" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF9" s="13">
+        <f t="shared" si="11"/>
         <v>0.50612197596004449</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="AG9" s="13">
+        <f t="shared" si="12"/>
+        <v>0.4752619801978451</v>
+      </c>
+      <c r="AH9" s="13">
+        <f t="shared" si="13"/>
+        <v>0.53698197172224393</v>
+      </c>
+      <c r="AI9" s="11">
         <v>729</v>
       </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
@@ -22893,8 +24139,18 @@
       <c r="ALX9" s="10"/>
       <c r="ALY9" s="10"/>
       <c r="ALZ9" s="10"/>
+      <c r="AMA9" s="10"/>
+      <c r="AMB9" s="10"/>
+      <c r="AMC9" s="10"/>
+      <c r="AMD9" s="10"/>
+      <c r="AME9" s="10"/>
+      <c r="AMF9" s="10"/>
+      <c r="AMG9" s="10"/>
+      <c r="AMH9" s="10"/>
+      <c r="AMI9" s="10"/>
+      <c r="AMJ9" s="10"/>
     </row>
-    <row r="10" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -22904,80 +24160,113 @@
       <c r="C10" s="3">
         <v>2488.0511257385101</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.75160605036799022</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="1"/>
+        <v>0.75790348276252695</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.74530861797345349</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="10">
+      <c r="I10" s="10">
         <v>1096.4344264358599</v>
       </c>
-      <c r="H10" s="10">
+      <c r="J10" s="10">
         <v>953.79275519227895</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" si="0"/>
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
         <v>0.60987640916957164</v>
       </c>
-      <c r="J10" s="11">
+      <c r="L10" s="14">
+        <f t="shared" si="4"/>
+        <v>0.60168685359424567</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="5"/>
+        <v>0.61806596474489772</v>
+      </c>
+      <c r="N10" s="11">
         <v>730</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="10">
+      <c r="P10" s="10">
         <v>913.78508571007399</v>
       </c>
-      <c r="M10" s="10">
+      <c r="Q10" s="10">
         <v>868.92524124313104</v>
       </c>
-      <c r="N10" s="14">
-        <f t="shared" si="1"/>
+      <c r="R10" s="14">
+        <f t="shared" si="6"/>
         <v>0.53190489538450592</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10" t="s">
+      <c r="S10" s="14">
+        <f t="shared" si="7"/>
+        <v>0.4904525265780984</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="8"/>
+        <v>0.57335726419091337</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="W10" s="10">
         <v>1466.4161853210101</v>
       </c>
-      <c r="R10" s="10">
+      <c r="X10" s="10">
         <v>1093.8571428571399</v>
       </c>
-      <c r="S10" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y10" s="14">
+        <f t="shared" si="14"/>
         <v>0.4810390830698843</v>
       </c>
-      <c r="T10" s="11">
+      <c r="Z10" s="14">
+        <f t="shared" si="9"/>
+        <v>0.52332277907964253</v>
+      </c>
+      <c r="AA10" s="14">
+        <f t="shared" si="10"/>
+        <v>0.43875538706012601</v>
+      </c>
+      <c r="AB10" s="11">
         <v>733</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="AC10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="10">
+      <c r="AD10" s="10">
         <v>400.27878443391</v>
       </c>
-      <c r="W10" s="10">
+      <c r="AE10" s="10">
         <v>329.947902871373</v>
       </c>
-      <c r="X10" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF10" s="13">
+        <f t="shared" si="11"/>
         <v>0.50449590606082995</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="AG10" s="13">
+        <f t="shared" si="12"/>
+        <v>0.4753052967248928</v>
+      </c>
+      <c r="AH10" s="13">
+        <f t="shared" si="13"/>
+        <v>0.53368651539676704</v>
+      </c>
+      <c r="AI10" s="11">
         <v>365</v>
       </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
@@ -23957,8 +25246,18 @@
       <c r="ALX10" s="10"/>
       <c r="ALY10" s="10"/>
       <c r="ALZ10" s="10"/>
+      <c r="AMA10" s="10"/>
+      <c r="AMB10" s="10"/>
+      <c r="AMC10" s="10"/>
+      <c r="AMD10" s="10"/>
+      <c r="AME10" s="10"/>
+      <c r="AMF10" s="10"/>
+      <c r="AMG10" s="10"/>
+      <c r="AMH10" s="10"/>
+      <c r="AMI10" s="10"/>
+      <c r="AMJ10" s="10"/>
     </row>
-    <row r="11" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -23968,78 +25267,111 @@
       <c r="C11">
         <v>633.68517976704595</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="14">
+        <f>1-0.5*($B$11/B11+$C$11/C11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10">
+      <c r="I11" s="10">
         <v>1463.0665427854799</v>
       </c>
-      <c r="H11" s="10">
+      <c r="J11" s="10">
         <v>1236.54323327933</v>
       </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
+      <c r="K11" s="14">
+        <f t="shared" si="3"/>
         <v>0.70345026874311523</v>
       </c>
-      <c r="J11" s="11">
+      <c r="L11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.70150076332837719</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="5"/>
+        <v>0.70539977415785327</v>
+      </c>
+      <c r="N11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="10">
+      <c r="P11" s="10">
         <v>1848.0092377629301</v>
       </c>
-      <c r="M11" s="10">
+      <c r="Q11" s="10">
         <v>1750.8571428571399</v>
       </c>
-      <c r="N11" s="14">
-        <f t="shared" si="1"/>
+      <c r="R11" s="14">
+        <f t="shared" si="6"/>
         <v>0.76815370661860305</v>
       </c>
-      <c r="O11" s="11">
+      <c r="S11" s="14">
+        <f t="shared" si="7"/>
+        <v>0.74804407242150639</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="8"/>
+        <v>0.78826334081569971</v>
+      </c>
+      <c r="U11" s="11">
         <v>733</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="V11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="W11" s="10">
         <v>1488.7995676912401</v>
       </c>
-      <c r="R11" s="10">
+      <c r="X11" s="10">
         <v>1291.4348834150901</v>
       </c>
-      <c r="S11" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y11" s="14">
+        <f t="shared" si="14"/>
         <v>0.5275550385012765</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12" t="s">
+      <c r="Z11" s="14">
+        <f t="shared" si="9"/>
+        <v>0.53048939084833413</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="10"/>
+        <v>0.52462068615421886</v>
+      </c>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="AD11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="10">
+      <c r="AE11" s="10">
         <v>596.49970271582697</v>
       </c>
-      <c r="X11" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="AF11" s="13" t="e">
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
+      <c r="AG11" s="13" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH11" s="13">
+        <f t="shared" si="13"/>
+        <v>0.74206331432359873</v>
+      </c>
+      <c r="AI11" s="11"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
@@ -25019,8 +26351,18 @@
       <c r="ALX11" s="10"/>
       <c r="ALY11" s="10"/>
       <c r="ALZ11" s="10"/>
+      <c r="AMA11" s="10"/>
+      <c r="AMB11" s="10"/>
+      <c r="AMC11" s="10"/>
+      <c r="AMD11" s="10"/>
+      <c r="AME11" s="10"/>
+      <c r="AMF11" s="10"/>
+      <c r="AMG11" s="10"/>
+      <c r="AMH11" s="10"/>
+      <c r="AMI11" s="10"/>
+      <c r="AMJ11" s="10"/>
     </row>
-    <row r="12" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -25030,82 +26372,115 @@
       <c r="C12">
         <v>1811.7045203037901</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.63412823208887503</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.61802938391456685</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.65022708026318299</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="10">
+      <c r="I12" s="10">
         <v>2079.75247496976</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="10">
         <v>1959.3571428571399</v>
       </c>
-      <c r="I12" s="14">
-        <f t="shared" si="0"/>
+      <c r="K12" s="14">
+        <f t="shared" si="3"/>
         <v>0.80204514492806345</v>
       </c>
-      <c r="J12" s="11">
+      <c r="L12" s="14">
+        <f t="shared" si="4"/>
+        <v>0.79001143093838322</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.81407885891774368</v>
+      </c>
+      <c r="N12" s="11">
         <v>733</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="10">
+      <c r="P12" s="10">
         <v>4527.3975153502197</v>
       </c>
-      <c r="M12" s="10">
+      <c r="Q12" s="10">
         <v>3249.7146644061199</v>
       </c>
-      <c r="N12" s="14">
-        <f t="shared" si="1"/>
+      <c r="R12" s="14">
+        <f t="shared" si="6"/>
         <v>0.89153891348038405</v>
       </c>
-      <c r="O12" s="11">
+      <c r="S12" s="14">
+        <f t="shared" si="7"/>
+        <v>0.89715573238367041</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="8"/>
+        <v>0.8859220945770977</v>
+      </c>
+      <c r="U12" s="11">
         <v>1</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="W12" s="10">
         <v>2159.0375722813501</v>
       </c>
-      <c r="R12" s="10">
+      <c r="X12" s="10">
         <v>1791.3758756504301</v>
       </c>
-      <c r="S12" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y12" s="14">
+        <f t="shared" si="14"/>
         <v>0.66676592976735671</v>
       </c>
-      <c r="T12" s="11">
+      <c r="Z12" s="14">
+        <f t="shared" si="9"/>
+        <v>0.67624130265003035</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.65729055688468307</v>
+      </c>
+      <c r="AB12" s="11">
         <v>730</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="AC12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="10">
+      <c r="AD12" s="10">
         <v>2347.8246314407702</v>
       </c>
-      <c r="W12" s="10">
+      <c r="AE12" s="10">
         <v>2307.9285714285702</v>
       </c>
-      <c r="X12" s="13">
-        <f t="shared" si="2"/>
+      <c r="AF12" s="13">
+        <f t="shared" si="11"/>
         <v>0.92193986738488765</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="AG12" s="13">
+        <f t="shared" si="12"/>
+        <v>0.9105452105692462</v>
+      </c>
+      <c r="AH12" s="13">
+        <f>(AE12-AE$4)/AE12</f>
+        <v>0.93333452420052898</v>
+      </c>
+      <c r="AI12" s="11">
         <v>733</v>
       </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
@@ -26085,8 +27460,18 @@
       <c r="ALX12" s="10"/>
       <c r="ALY12" s="10"/>
       <c r="ALZ12" s="10"/>
+      <c r="AMA12" s="10"/>
+      <c r="AMB12" s="10"/>
+      <c r="AMC12" s="10"/>
+      <c r="AMD12" s="10"/>
+      <c r="AME12" s="10"/>
+      <c r="AMF12" s="10"/>
+      <c r="AMG12" s="10"/>
+      <c r="AMH12" s="10"/>
+      <c r="AMI12" s="10"/>
+      <c r="AMJ12" s="10"/>
     </row>
-    <row r="13" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>32</v>
       </c>
@@ -26094,44 +27479,44 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="O13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
-      <c r="U13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
@@ -27111,8 +28496,18 @@
       <c r="ALX13" s="10"/>
       <c r="ALY13" s="10"/>
       <c r="ALZ13" s="10"/>
+      <c r="AMA13" s="10"/>
+      <c r="AMB13" s="10"/>
+      <c r="AMC13" s="10"/>
+      <c r="AMD13" s="10"/>
+      <c r="AME13" s="10"/>
+      <c r="AMF13" s="10"/>
+      <c r="AMG13" s="10"/>
+      <c r="AMH13" s="10"/>
+      <c r="AMI13" s="10"/>
+      <c r="AMJ13" s="10"/>
     </row>
-    <row r="14" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -27123,71 +28518,91 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10" t="s">
+      <c r="V14" s="10"/>
+      <c r="W14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="X14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="Z14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10" t="s">
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="AE14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="AG14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
@@ -28167,98 +29582,138 @@
       <c r="ALX14" s="10"/>
       <c r="ALY14" s="10"/>
       <c r="ALZ14" s="10"/>
+      <c r="AMA14" s="10"/>
+      <c r="AMB14" s="10"/>
+      <c r="AMC14" s="10"/>
+      <c r="AMD14" s="10"/>
+      <c r="AME14" s="10"/>
+      <c r="AMF14" s="10"/>
+      <c r="AMG14" s="10"/>
+      <c r="AMH14" s="10"/>
+      <c r="AMI14" s="10"/>
+      <c r="AMJ14" s="10"/>
     </row>
-    <row r="15" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="18">
         <v>296.22333780122898</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="18">
         <v>231.50588229150301</v>
       </c>
       <c r="D15" s="14">
         <f>1-0.5*($B$15/B15+$C$15/C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
+        <f>(B15-$B$15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f>(C15-$C$15)/C15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>620</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="10">
+      <c r="I15" s="18">
         <v>339.55596807177</v>
       </c>
-      <c r="H15" s="10">
+      <c r="J15" s="18">
         <v>274.17795067371799</v>
       </c>
-      <c r="I15" s="14">
-        <f>1-0.5*($G$15/G15+$H$15/H15)</f>
+      <c r="K15" s="14">
+        <f>1-0.5*($I$15/I15+$J$15/J15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="11">
+      <c r="L15" s="14">
+        <f>(I15-$I$15)/I15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <f>(J15-$J$15)/J15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
         <v>287</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="10">
-        <v>1194.80998320959</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1043.0627198712</v>
-      </c>
-      <c r="N15" s="14">
-        <f>1-0.5*($L$15/L15+$M$15/M15)</f>
+      <c r="P15" s="10">
+        <v>1224.28</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1049.43</v>
+      </c>
+      <c r="R15" s="14">
+        <f>1-0.5*($P$16/P15+$Q$16/Q15)</f>
+        <v>1.5069337311995001E-2</v>
+      </c>
+      <c r="S15" s="14">
+        <f>(P15-$P$16)/P15</f>
+        <v>2.4071304595688896E-2</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" ref="T15:T16" si="15">(Q15-$Q$17)/Q15</f>
+        <v>5.0537354977608806E-2</v>
+      </c>
+      <c r="U15" s="11">
+        <v>731</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="18">
+        <v>6817.7782616393297</v>
+      </c>
+      <c r="X15" s="10">
+        <v>4019.07771079854</v>
+      </c>
+      <c r="Y15" s="14">
+        <f>1-0.5*($W$15/W15+$X$15/X15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="11">
-        <v>731</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="Z15" s="14">
+        <f>(W15-$W$15)/W15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <f t="shared" ref="AA15:AA18" si="16">(X15-$X$19)/X15</f>
+        <v>0.35316206618866453</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>223</v>
+      </c>
+      <c r="AC15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="10">
-        <v>6817.7782616393297</v>
-      </c>
-      <c r="R15" s="10">
-        <v>4019.07771079854</v>
-      </c>
-      <c r="S15" s="14">
-        <f>1-0.5*($Q$15/Q15+$R$15/R15)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
-        <v>223</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" s="10">
+      <c r="AD15" s="10">
         <v>3159.2225264291601</v>
       </c>
-      <c r="W15" s="10">
+      <c r="AE15" s="10">
         <v>2643.4674031812501</v>
       </c>
-      <c r="X15" s="14">
-        <f>1-0.5*($V$15/V15+$W$15/W15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
+      <c r="AF15" s="14">
+        <f>1-0.5*($AD$16/AD15+$AE$16/AE15)</f>
+        <v>9.1508431918678745E-3</v>
+      </c>
+      <c r="AG15" s="14">
+        <f>(AD15-$AD$16)/AD15</f>
+        <v>1.0857901316603948E-2</v>
+      </c>
+      <c r="AH15" s="14">
+        <f>(AE15-$AE$16)/AE15</f>
+        <v>7.4437850671317581E-3</v>
+      </c>
+      <c r="AI15" s="11">
         <v>730</v>
       </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
@@ -29238,8 +30693,18 @@
       <c r="ALX15" s="10"/>
       <c r="ALY15" s="10"/>
       <c r="ALZ15" s="10"/>
+      <c r="AMA15" s="10"/>
+      <c r="AMB15" s="10"/>
+      <c r="AMC15" s="10"/>
+      <c r="AMD15" s="10"/>
+      <c r="AME15" s="10"/>
+      <c r="AMF15" s="10"/>
+      <c r="AMG15" s="10"/>
+      <c r="AMH15" s="10"/>
+      <c r="AMI15" s="10"/>
+      <c r="AMJ15" s="10"/>
     </row>
-    <row r="16" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -29250,86 +30715,116 @@
         <v>327.948777835123</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" ref="D16:D24" si="4">1-0.5*($B$15/B16+$C$15/C16)</f>
+        <f t="shared" ref="D16:D24" si="17">1-0.5*($B$15/B16+$C$15/C16)</f>
         <v>0.28204880982090419</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
+        <f t="shared" ref="E16:E24" si="18">(B16-$B$15)/B16</f>
+        <v>0.27001847661140854</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" ref="F16:F24" si="19">(C16-$C$15)/C16</f>
+        <v>0.29407914303039995</v>
+      </c>
+      <c r="G16" s="11">
         <v>731</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="10">
+      <c r="I16" s="10">
         <v>360.14151028342098</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>318.33952333821998</v>
       </c>
-      <c r="I16" s="14">
-        <f t="shared" ref="I16:I24" si="5">1-0.5*($G$15/G16+$H$15/H16)</f>
+      <c r="K16" s="14">
+        <f t="shared" ref="K16:K24" si="20">1-0.5*($I$15/I16+$J$15/J16)</f>
         <v>9.794217452915821E-2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="L16" s="14">
+        <f t="shared" ref="L16:L24" si="21">(I16-$I$15)/I16</f>
+        <v>5.7159593170614406E-2</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" ref="M16:M24" si="22">(J16-$J$15)/J16</f>
+        <v>0.13872475588770203</v>
+      </c>
+      <c r="N16" s="11">
         <v>365</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="10">
+      <c r="P16" s="18">
         <v>1194.80998320959</v>
       </c>
-      <c r="M16" s="10">
+      <c r="Q16" s="10">
         <v>1043.0627198712</v>
       </c>
-      <c r="N16" s="14">
-        <f t="shared" ref="N16:N24" si="6">1-0.5*($L$15/L16+$M$15/M16)</f>
+      <c r="R16" s="14">
+        <f>1-0.5*($P$16/P16+$Q$16/Q16)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="S16" s="14">
+        <f>(P16-$P$16)/P16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="15"/>
+        <v>4.4741447869131624E-2</v>
+      </c>
+      <c r="U16" s="11">
         <v>731</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="V16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="W16" s="10">
         <v>7385.3110375674196</v>
       </c>
-      <c r="R16" s="10">
+      <c r="X16" s="10">
         <v>4374.13552486961</v>
       </c>
-      <c r="S16" s="14">
-        <f t="shared" ref="S16:S24" si="7">1-0.5*($Q$15/Q16+$R$15/R16)</f>
+      <c r="Y16" s="14">
+        <f t="shared" ref="Y16:Y24" si="23">1-0.5*($W$15/W16+$X$15/X16)</f>
         <v>7.9009134268374415E-2</v>
       </c>
-      <c r="T16" s="11">
+      <c r="Z16" s="14">
+        <f t="shared" ref="Z16:Z24" si="24">(W16-$W$15)/W16</f>
+        <v>7.6846157601376308E-2</v>
+      </c>
+      <c r="AA16" s="14">
+        <f t="shared" si="16"/>
+        <v>0.40566726670920539</v>
+      </c>
+      <c r="AB16" s="11">
         <v>365</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="AC16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="10">
-        <v>3159.2225264291601</v>
-      </c>
-      <c r="W16" s="10">
-        <v>2643.4674031812501</v>
-      </c>
-      <c r="X16" s="14">
-        <f t="shared" ref="X16:X24" si="8">1-0.5*($V$15/V16+$W$15/W16)</f>
+      <c r="AD16" s="10">
+        <v>3124.92</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>2623.79</v>
+      </c>
+      <c r="AF16" s="14">
+        <f>1-0.5*($AD$16/AD16+$AE$16/AE16)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="AG16" s="14">
+        <f>(AD16-$AD$16)/AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <f>(AE16-$AE$16)/AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="11">
         <v>730</v>
       </c>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
@@ -30309,8 +31804,18 @@
       <c r="ALX16" s="10"/>
       <c r="ALY16" s="10"/>
       <c r="ALZ16" s="10"/>
+      <c r="AMA16" s="10"/>
+      <c r="AMB16" s="10"/>
+      <c r="AMC16" s="10"/>
+      <c r="AMD16" s="10"/>
+      <c r="AME16" s="10"/>
+      <c r="AMF16" s="10"/>
+      <c r="AMG16" s="10"/>
+      <c r="AMH16" s="10"/>
+      <c r="AMI16" s="10"/>
+      <c r="AMJ16" s="10"/>
     </row>
-    <row r="17" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -30321,86 +31826,116 @@
         <v>399.00570968497101</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.38215158367935298</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
+        <f t="shared" si="18"/>
+        <v>0.34451010844304558</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="19"/>
+        <v>0.4197930589156606</v>
+      </c>
+      <c r="G17" s="11">
         <v>365</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="10">
+      <c r="I17" s="10">
         <v>380.417842247816</v>
       </c>
-      <c r="H17" s="10">
+      <c r="J17" s="10">
         <v>347.43519036488101</v>
       </c>
-      <c r="I17" s="14">
-        <f t="shared" si="5"/>
+      <c r="K17" s="14">
+        <f t="shared" si="20"/>
         <v>0.15913233143384908</v>
       </c>
-      <c r="J17" s="11">
+      <c r="L17" s="14">
+        <f t="shared" si="21"/>
+        <v>0.10741313797113466</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="22"/>
+        <v>0.21085152489656361</v>
+      </c>
+      <c r="N17" s="11">
         <v>731</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="10">
+      <c r="P17" s="10">
         <v>1216.0902949354399</v>
       </c>
-      <c r="M17" s="10">
+      <c r="Q17" s="18">
         <v>996.39458356584805</v>
       </c>
-      <c r="N17" s="14">
-        <f t="shared" si="6"/>
+      <c r="R17" s="14">
+        <f t="shared" ref="R17:R24" si="25">1-0.5*($P$16/P17+$Q$16/Q17)</f>
         <v>-1.4669023125151393E-2</v>
       </c>
-      <c r="O17" s="11">
+      <c r="S17" s="14">
+        <f t="shared" ref="S17:S24" si="26">(P17-$P$16)/P17</f>
+        <v>1.7498956956135979E-2</v>
+      </c>
+      <c r="T17" s="14">
+        <f>(Q17-$Q$17)/Q17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
         <v>732</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="V17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="W17" s="10">
         <v>7532.3489174550105</v>
       </c>
-      <c r="R17" s="10">
+      <c r="X17" s="10">
         <v>3409.9285714285702</v>
       </c>
-      <c r="S17" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y17" s="14">
+        <f t="shared" si="23"/>
         <v>-4.1886472324150992E-2</v>
       </c>
-      <c r="T17" s="11">
+      <c r="Z17" s="14">
+        <f t="shared" si="24"/>
+        <v>9.4866908536297076E-2</v>
+      </c>
+      <c r="AA17" s="14">
+        <f t="shared" si="16"/>
+        <v>0.23761103265837805</v>
+      </c>
+      <c r="AB17" s="11">
         <v>733</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="AC17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="10">
+      <c r="AD17" s="10">
         <v>3444.3401896729602</v>
       </c>
-      <c r="W17" s="10">
+      <c r="AE17" s="10">
         <v>3066.7370345386598</v>
       </c>
-      <c r="X17" s="14">
-        <f t="shared" si="8"/>
-        <v>0.11039907007889649</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="AF17" s="14">
+        <f t="shared" ref="AF17:AF24" si="27">1-0.5*($AD$16/AD17+$AE$16/AE17)</f>
+        <v>0.11858681843761143</v>
+      </c>
+      <c r="AG17" s="14">
+        <f t="shared" ref="AG17:AG24" si="28">(AD17-$AD$16)/AD17</f>
+        <v>9.2737700715703406E-2</v>
+      </c>
+      <c r="AH17" s="14">
+        <f t="shared" ref="AH17:AH24" si="29">(AE17-$AE$16)/AE17</f>
+        <v>0.14443593615951944</v>
+      </c>
+      <c r="AI17" s="11">
         <v>731</v>
       </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
@@ -31380,8 +32915,18 @@
       <c r="ALX17" s="10"/>
       <c r="ALY17" s="10"/>
       <c r="ALZ17" s="10"/>
+      <c r="AMA17" s="10"/>
+      <c r="AMB17" s="10"/>
+      <c r="AMC17" s="10"/>
+      <c r="AMD17" s="10"/>
+      <c r="AME17" s="10"/>
+      <c r="AMF17" s="10"/>
+      <c r="AMG17" s="10"/>
+      <c r="AMH17" s="10"/>
+      <c r="AMI17" s="10"/>
+      <c r="AMJ17" s="10"/>
     </row>
-    <row r="18" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -31392,84 +32937,114 @@
         <v>402.89164422896903</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.40349643340191332</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
+        <f t="shared" si="18"/>
+        <v>0.38160364766165694</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="19"/>
+        <v>0.42538921914216982</v>
+      </c>
+      <c r="G18" s="11">
         <v>730</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="10">
+      <c r="I18" s="10">
         <v>419.89326371585901</v>
       </c>
-      <c r="H18" s="10">
+      <c r="J18" s="10">
         <v>382.51636081776701</v>
       </c>
-      <c r="I18" s="14">
-        <f t="shared" si="5"/>
+      <c r="K18" s="14">
+        <f t="shared" si="20"/>
         <v>0.23727672866693261</v>
       </c>
-      <c r="J18" s="11">
+      <c r="L18" s="14">
+        <f t="shared" si="21"/>
+        <v>0.19132789826905419</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="22"/>
+        <v>0.28322555906481101</v>
+      </c>
+      <c r="N18" s="11">
         <v>730</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="10">
+      <c r="P18" s="10">
         <v>1311.38464298642</v>
       </c>
-      <c r="M18" s="10">
+      <c r="Q18" s="10">
         <v>1120.4117877142801</v>
       </c>
-      <c r="N18" s="14">
-        <f t="shared" si="6"/>
+      <c r="R18" s="14">
+        <f t="shared" si="25"/>
         <v>7.8965307871683654E-2</v>
       </c>
-      <c r="O18" s="11">
+      <c r="S18" s="14">
+        <f t="shared" si="26"/>
+        <v>8.8894330431805418E-2</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" ref="T18:T24" si="30">(Q18-$Q$17)/Q18</f>
+        <v>0.11068894982034772</v>
+      </c>
+      <c r="U18" s="11">
         <v>729</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="V18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="W18" s="10">
         <v>7861.6474996043198</v>
       </c>
-      <c r="R18" s="10">
+      <c r="X18" s="10">
         <v>3979.1521194577199</v>
       </c>
-      <c r="S18" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y18" s="14">
+        <f t="shared" si="23"/>
         <v>6.1373133264655211E-2</v>
       </c>
-      <c r="T18" s="11">
+      <c r="Z18" s="14">
+        <f t="shared" si="24"/>
+        <v>0.13277995967353262</v>
+      </c>
+      <c r="AA18" s="14">
+        <f t="shared" si="16"/>
+        <v>0.34667189284675887</v>
+      </c>
+      <c r="AB18" s="11">
         <v>729</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="AC18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="10">
+      <c r="AD18" s="10">
         <v>3494.7294559205602</v>
       </c>
-      <c r="W18" s="10">
+      <c r="AE18" s="10">
         <v>2817.3217873056301</v>
       </c>
-      <c r="X18" s="14">
-        <f t="shared" si="8"/>
-        <v>7.8856394502090921E-2</v>
-      </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
+      <c r="AF18" s="14">
+        <f t="shared" si="27"/>
+        <v>8.72563637600825E-2</v>
+      </c>
+      <c r="AG18" s="14">
+        <f t="shared" si="28"/>
+        <v>0.10581919447127766</v>
+      </c>
+      <c r="AH18" s="14">
+        <f t="shared" si="29"/>
+        <v>6.8693533048887506E-2</v>
+      </c>
+      <c r="AI18" s="11"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
@@ -32449,8 +34024,18 @@
       <c r="ALX18" s="10"/>
       <c r="ALY18" s="10"/>
       <c r="ALZ18" s="10"/>
+      <c r="AMA18" s="10"/>
+      <c r="AMB18" s="10"/>
+      <c r="AMC18" s="10"/>
+      <c r="AMD18" s="10"/>
+      <c r="AME18" s="10"/>
+      <c r="AMF18" s="10"/>
+      <c r="AMG18" s="10"/>
+      <c r="AMH18" s="10"/>
+      <c r="AMI18" s="10"/>
+      <c r="AMJ18" s="10"/>
     </row>
-    <row r="19" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
@@ -32461,84 +34046,114 @@
         <v>445.583687918527</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.48189005322076661</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="14">
+        <f t="shared" si="18"/>
+        <v>0.48333656366496913</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="19"/>
+        <v>0.48044354277656404</v>
+      </c>
+      <c r="G19" s="11">
         <v>732</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="10">
+      <c r="I19" s="10">
         <v>472.79876710174398</v>
       </c>
-      <c r="H19" s="10">
+      <c r="J19" s="10">
         <v>399.281982421875</v>
       </c>
-      <c r="I19" s="14">
-        <f t="shared" si="5"/>
+      <c r="K19" s="14">
+        <f t="shared" si="20"/>
         <v>0.29756982636437901</v>
       </c>
-      <c r="J19" s="11">
+      <c r="L19" s="14">
+        <f t="shared" si="21"/>
+        <v>0.28181714568917388</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="22"/>
+        <v>0.31332250703958409</v>
+      </c>
+      <c r="N19" s="11">
         <v>732</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="10">
+      <c r="P19" s="10">
         <v>1341.90152240148</v>
       </c>
-      <c r="M19" s="10">
+      <c r="Q19" s="10">
         <v>1135.7712834195299</v>
       </c>
-      <c r="N19" s="14">
-        <f t="shared" si="6"/>
+      <c r="R19" s="14">
+        <f t="shared" si="25"/>
         <v>9.5620171415572996E-2</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10" t="s">
+      <c r="S19" s="14">
+        <f t="shared" si="26"/>
+        <v>0.10961425763095756</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="30"/>
+        <v>0.12271546383357455</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="W19" s="10">
         <v>7987.0973787993298</v>
       </c>
-      <c r="R19" s="10">
+      <c r="X19" s="18">
         <v>2599.6919222801198</v>
       </c>
-      <c r="S19" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y19" s="14">
+        <f t="shared" si="23"/>
         <v>-0.19979064797620572</v>
       </c>
-      <c r="T19" s="11">
+      <c r="Z19" s="14">
+        <f t="shared" si="24"/>
+        <v>0.14640100924070359</v>
+      </c>
+      <c r="AA19" s="14">
+        <f>(X19-$X$19)/X19</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="11">
         <v>731</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="AC19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V19" s="10">
+      <c r="AD19" s="10">
         <v>3668.40005607068</v>
       </c>
-      <c r="W19" s="10">
+      <c r="AE19" s="10">
         <v>3113.3870675223202</v>
       </c>
-      <c r="X19" s="14">
-        <f t="shared" si="8"/>
-        <v>0.14486808524973238</v>
-      </c>
-      <c r="Y19" s="11">
+      <c r="AF19" s="14">
+        <f t="shared" si="27"/>
+        <v>0.15270362020810713</v>
+      </c>
+      <c r="AG19" s="14">
+        <f t="shared" si="28"/>
+        <v>0.14815179581389923</v>
+      </c>
+      <c r="AH19" s="14">
+        <f t="shared" si="29"/>
+        <v>0.15725544460231503</v>
+      </c>
+      <c r="AI19" s="11">
         <v>732</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
@@ -33518,8 +35133,18 @@
       <c r="ALX19" s="10"/>
       <c r="ALY19" s="10"/>
       <c r="ALZ19" s="10"/>
+      <c r="AMA19" s="10"/>
+      <c r="AMB19" s="10"/>
+      <c r="AMC19" s="10"/>
+      <c r="AMD19" s="10"/>
+      <c r="AME19" s="10"/>
+      <c r="AMF19" s="10"/>
+      <c r="AMG19" s="10"/>
+      <c r="AMH19" s="10"/>
+      <c r="AMI19" s="10"/>
+      <c r="AMJ19" s="10"/>
     </row>
-    <row r="20" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -33530,86 +35155,116 @@
         <v>570.04379880428303</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.56223862574407679</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
+        <f t="shared" si="18"/>
+        <v>0.53059671595229985</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="19"/>
+        <v>0.59388053553585374</v>
+      </c>
+      <c r="G20" s="11">
         <v>729</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="10">
+      <c r="I20" s="10">
         <v>534.139726733987</v>
       </c>
-      <c r="H20" s="10">
+      <c r="J20" s="10">
         <v>433.13724179778802</v>
       </c>
-      <c r="I20" s="14">
-        <f t="shared" si="5"/>
+      <c r="K20" s="14">
+        <f t="shared" si="20"/>
         <v>0.36564447275250633</v>
       </c>
-      <c r="J20" s="11">
+      <c r="L20" s="14">
+        <f t="shared" si="21"/>
+        <v>0.36429373986467006</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="22"/>
+        <v>0.36699520564034266</v>
+      </c>
+      <c r="N20" s="11">
         <v>729</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="10">
+      <c r="P20" s="10">
         <v>1390.3708703536699</v>
       </c>
-      <c r="M20" s="10">
+      <c r="Q20" s="10">
         <v>1107.78021322875</v>
       </c>
-      <c r="N20" s="14">
-        <f t="shared" si="6"/>
+      <c r="R20" s="14">
+        <f t="shared" si="25"/>
         <v>9.9537318020009979E-2</v>
       </c>
-      <c r="O20" s="11">
+      <c r="S20" s="14">
+        <f t="shared" si="26"/>
+        <v>0.14065375743547831</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="30"/>
+        <v>0.10054849177911923</v>
+      </c>
+      <c r="U20" s="11">
         <v>730</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="V20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="W20" s="10">
         <v>8104.4947733920399</v>
       </c>
-      <c r="R20" s="10">
+      <c r="X20" s="10">
         <v>2804.9080113002201</v>
       </c>
-      <c r="S20" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y20" s="14">
+        <f t="shared" si="23"/>
         <v>-0.13705373960915845</v>
       </c>
-      <c r="T20" s="11">
+      <c r="Z20" s="14">
+        <f t="shared" si="24"/>
+        <v>0.15876578956866552</v>
+      </c>
+      <c r="AA20" s="14">
+        <f t="shared" ref="AA20:AA24" si="31">(X20-$X$19)/X20</f>
+        <v>7.316321540433407E-2</v>
+      </c>
+      <c r="AB20" s="11">
         <v>732</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="AC20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="10">
+      <c r="AD20" s="10">
         <v>3931.2766416368299</v>
       </c>
-      <c r="W20" s="10">
+      <c r="AE20" s="10">
         <v>3129.5446077122601</v>
       </c>
-      <c r="X20" s="14">
-        <f t="shared" si="8"/>
-        <v>0.17585323123407859</v>
-      </c>
-      <c r="Y20" s="11">
+      <c r="AF20" s="14">
+        <f t="shared" si="27"/>
+        <v>0.1833598156643832</v>
+      </c>
+      <c r="AG20" s="14">
+        <f t="shared" si="28"/>
+        <v>0.20511317700122331</v>
+      </c>
+      <c r="AH20" s="14">
+        <f t="shared" si="29"/>
+        <v>0.16160645432754311</v>
+      </c>
+      <c r="AI20" s="11">
         <v>365</v>
       </c>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
@@ -34589,8 +36244,18 @@
       <c r="ALX20" s="10"/>
       <c r="ALY20" s="10"/>
       <c r="ALZ20" s="10"/>
+      <c r="AMA20" s="10"/>
+      <c r="AMB20" s="10"/>
+      <c r="AMC20" s="10"/>
+      <c r="AMD20" s="10"/>
+      <c r="AME20" s="10"/>
+      <c r="AMF20" s="10"/>
+      <c r="AMG20" s="10"/>
+      <c r="AMH20" s="10"/>
+      <c r="AMI20" s="10"/>
+      <c r="AMJ20" s="10"/>
     </row>
-    <row r="21" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
@@ -34601,84 +36266,114 @@
         <v>680</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.6656039750935373</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="14">
+        <f t="shared" si="18"/>
+        <v>0.67165777708634355</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="19"/>
+        <v>0.65955017310073094</v>
+      </c>
+      <c r="G21" s="11">
         <v>733</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="10">
+      <c r="I21" s="10">
         <v>710.68215847184695</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>491.569784004447</v>
       </c>
-      <c r="I21" s="14">
-        <f t="shared" si="5"/>
+      <c r="K21" s="14">
+        <f t="shared" si="20"/>
         <v>0.48222561761042826</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="14">
+        <f t="shared" si="21"/>
+        <v>0.52221121070225773</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="22"/>
+        <v>0.4422400245185989</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="10">
+      <c r="P21" s="10">
         <v>1479.98813175292</v>
       </c>
-      <c r="M21" s="10">
+      <c r="Q21" s="10">
         <v>1231.55854046012</v>
       </c>
-      <c r="N21" s="14">
-        <f t="shared" si="6"/>
+      <c r="R21" s="14">
+        <f t="shared" si="25"/>
         <v>0.1728720907436786</v>
       </c>
-      <c r="O21" s="11">
+      <c r="S21" s="14">
+        <f t="shared" si="26"/>
+        <v>0.19268948339846537</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="30"/>
+        <v>0.19094825716235364</v>
+      </c>
+      <c r="U21" s="11">
         <v>365</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="V21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="W21" s="10">
         <v>8369.15128072281</v>
       </c>
-      <c r="R21" s="10">
+      <c r="X21" s="10">
         <v>3424.1623493688498</v>
       </c>
-      <c r="S21" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y21" s="14">
+        <f t="shared" si="23"/>
         <v>5.8138073437348226E-3</v>
       </c>
-      <c r="T21" s="11">
+      <c r="Z21" s="14">
+        <f t="shared" si="24"/>
+        <v>0.18536802204267175</v>
+      </c>
+      <c r="AA21" s="14">
+        <f t="shared" si="31"/>
+        <v>0.24078018007548577</v>
+      </c>
+      <c r="AB21" s="11">
         <v>730</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="AC21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="10">
+      <c r="AD21" s="10">
         <v>5675.6081136980401</v>
       </c>
-      <c r="W21" s="10">
+      <c r="AE21" s="10">
         <v>4692.4011167798699</v>
       </c>
-      <c r="X21" s="14">
-        <f t="shared" si="8"/>
-        <v>0.4400088817251635</v>
-      </c>
-      <c r="Y21" s="11">
+      <c r="AF21" s="14">
+        <f t="shared" si="27"/>
+        <v>0.44512753765447721</v>
+      </c>
+      <c r="AG21" s="14">
+        <f t="shared" si="28"/>
+        <v>0.44941230306968732</v>
+      </c>
+      <c r="AH21" s="14">
+        <f t="shared" si="29"/>
+        <v>0.44084277223926693</v>
+      </c>
+      <c r="AI21" s="11">
         <v>729</v>
       </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
@@ -35658,8 +37353,18 @@
       <c r="ALX21" s="10"/>
       <c r="ALY21" s="10"/>
       <c r="ALZ21" s="10"/>
+      <c r="AMA21" s="10"/>
+      <c r="AMB21" s="10"/>
+      <c r="AMC21" s="10"/>
+      <c r="AMD21" s="10"/>
+      <c r="AME21" s="10"/>
+      <c r="AMF21" s="10"/>
+      <c r="AMG21" s="10"/>
+      <c r="AMH21" s="10"/>
+      <c r="AMI21" s="10"/>
+      <c r="AMJ21" s="10"/>
     </row>
-    <row r="22" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -35670,82 +37375,112 @@
         <v>799.03667708838498</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.70670646451913832</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
+        <f t="shared" si="18"/>
+        <v>0.70314416282229864</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="19"/>
+        <v>0.71026876621597801</v>
+      </c>
+      <c r="G22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="10">
+      <c r="I22" s="10">
         <v>922.130859592501</v>
       </c>
-      <c r="H22" s="10">
+      <c r="J22" s="10">
         <v>868.44321534818903</v>
       </c>
-      <c r="I22" s="14">
-        <f t="shared" si="5"/>
+      <c r="K22" s="14">
+        <f t="shared" si="20"/>
         <v>0.65802914732110218</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="14">
+        <f t="shared" si="21"/>
+        <v>0.6317703018616867</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="22"/>
+        <v>0.68428799278051755</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10">
+      <c r="P22" s="10">
         <v>1500.3857274469201</v>
       </c>
-      <c r="M22" s="10">
+      <c r="Q22" s="10">
         <v>1237.0353539989801</v>
       </c>
-      <c r="N22" s="14">
-        <f t="shared" si="6"/>
+      <c r="R22" s="14">
+        <f t="shared" si="25"/>
         <v>0.18023461431183352</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="10" t="s">
+      <c r="S22" s="14">
+        <f t="shared" si="26"/>
+        <v>0.20366479009188032</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="30"/>
+        <v>0.19453022878869997</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="W22" s="10">
         <v>13913.5567779058</v>
       </c>
-      <c r="R22" s="10">
+      <c r="X22" s="10">
         <v>8613.4825284316503</v>
       </c>
-      <c r="S22" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y22" s="14">
+        <f t="shared" si="23"/>
         <v>0.52169357923315118</v>
       </c>
-      <c r="T22" s="11">
+      <c r="Z22" s="14">
+        <f t="shared" si="24"/>
+        <v>0.50999026557567917</v>
+      </c>
+      <c r="AA22" s="14">
+        <f t="shared" si="31"/>
+        <v>0.69818341028742137</v>
+      </c>
+      <c r="AB22" s="11">
         <v>1</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="AC22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="10">
+      <c r="AD22" s="10">
         <v>6003.3394159298696</v>
       </c>
-      <c r="W22" s="10">
+      <c r="AE22" s="10">
         <v>5177.7142857142899</v>
       </c>
-      <c r="X22" s="14">
-        <f t="shared" si="8"/>
-        <v>0.48160431415900273</v>
-      </c>
-      <c r="Y22" s="11">
+      <c r="AF22" s="14">
+        <f t="shared" si="27"/>
+        <v>0.48636146965512783</v>
+      </c>
+      <c r="AG22" s="14">
+        <f t="shared" si="28"/>
+        <v>0.47946971118973875</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="29"/>
+        <v>0.49325322812051692</v>
+      </c>
+      <c r="AI22" s="11">
         <v>733</v>
       </c>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
@@ -36725,8 +38460,18 @@
       <c r="ALX22" s="10"/>
       <c r="ALY22" s="10"/>
       <c r="ALZ22" s="10"/>
+      <c r="AMA22" s="10"/>
+      <c r="AMB22" s="10"/>
+      <c r="AMC22" s="10"/>
+      <c r="AMD22" s="10"/>
+      <c r="AME22" s="10"/>
+      <c r="AMF22" s="10"/>
+      <c r="AMG22" s="10"/>
+      <c r="AMH22" s="10"/>
+      <c r="AMI22" s="10"/>
+      <c r="AMJ22" s="10"/>
     </row>
-    <row r="23" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
@@ -36737,80 +38482,110 @@
         <v>638.35703567825499</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.62302158659192242</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.60870210753008847</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="19"/>
+        <v>0.63734106565375637</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="10">
+      <c r="I23" s="10">
         <v>2041.32929379713</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>2002.8571428571399</v>
       </c>
-      <c r="I23" s="14">
-        <f t="shared" si="5"/>
+      <c r="K23" s="14">
+        <f t="shared" si="20"/>
         <v>0.84838298634956555</v>
       </c>
-      <c r="J23" s="11">
+      <c r="L23" s="14">
+        <f t="shared" si="21"/>
+        <v>0.83365938601696499</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="22"/>
+        <v>0.86310658668216633</v>
+      </c>
+      <c r="N23" s="11">
         <v>733</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="O23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="10">
+      <c r="P23" s="10">
         <v>1685.6728316922399</v>
       </c>
-      <c r="M23" s="10">
+      <c r="Q23" s="10">
         <v>1548.4352387928</v>
       </c>
-      <c r="N23" s="14">
-        <f t="shared" si="6"/>
+      <c r="R23" s="14">
+        <f t="shared" si="25"/>
         <v>0.30878662858703276</v>
       </c>
-      <c r="O23" s="11">
+      <c r="S23" s="14">
+        <f t="shared" si="26"/>
+        <v>0.29119698630360841</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="30"/>
+        <v>0.35651517183071668</v>
+      </c>
+      <c r="U23" s="11">
         <v>1</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="V23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="W23" s="10">
         <v>7896.52716309691</v>
       </c>
-      <c r="R23" s="10">
+      <c r="X23" s="10">
         <v>2971.81092397462</v>
       </c>
-      <c r="S23" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y23" s="14">
+        <f t="shared" si="23"/>
         <v>-0.10789482994565081</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="10" t="s">
+      <c r="Z23" s="14">
+        <f t="shared" si="24"/>
+        <v>0.13661054779864898</v>
+      </c>
+      <c r="AA23" s="14">
+        <f t="shared" si="31"/>
+        <v>0.12521624397181136</v>
+      </c>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="10">
+      <c r="AD23" s="10">
         <v>7654.5497542450303</v>
       </c>
-      <c r="W23" s="10">
+      <c r="AE23" s="10">
         <v>6172.9775873843701</v>
       </c>
-      <c r="X23" s="14">
-        <f t="shared" si="8"/>
-        <v>0.57952152928374578</v>
-      </c>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="AF23" s="14">
+        <f t="shared" si="27"/>
+        <v>0.58335602587046809</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="28"/>
+        <v>0.59175652385471866</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="29"/>
+        <v>0.57495552788621751</v>
+      </c>
+      <c r="AI23" s="11"/>
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
@@ -37790,8 +39565,18 @@
       <c r="ALX23" s="10"/>
       <c r="ALY23" s="10"/>
       <c r="ALZ23" s="10"/>
+      <c r="AMA23" s="10"/>
+      <c r="AMB23" s="10"/>
+      <c r="AMC23" s="10"/>
+      <c r="AMD23" s="10"/>
+      <c r="AME23" s="10"/>
+      <c r="AMF23" s="10"/>
+      <c r="AMG23" s="10"/>
+      <c r="AMH23" s="10"/>
+      <c r="AMI23" s="10"/>
+      <c r="AMJ23" s="10"/>
     </row>
-    <row r="24" spans="1:1014" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -37802,82 +39587,112 @@
         <v>1096.78214827493</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.77116321620934147</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="14">
+        <f t="shared" si="18"/>
+        <v>0.75340379418612802</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="19"/>
+        <v>0.78892263823255493</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10">
+      <c r="I24" s="10">
         <v>4277.9573579407497</v>
       </c>
-      <c r="H24" s="10">
+      <c r="J24" s="10">
         <v>2975.66077065645</v>
       </c>
-      <c r="I24" s="14">
-        <f t="shared" si="5"/>
+      <c r="K24" s="14">
+        <f t="shared" si="20"/>
         <v>0.91424321081656224</v>
       </c>
-      <c r="J24" s="11">
+      <c r="L24" s="14">
+        <f t="shared" si="21"/>
+        <v>0.92062661226823916</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="22"/>
+        <v>0.9078598093648852</v>
+      </c>
+      <c r="N24" s="11">
         <v>1</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="O24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="10">
+      <c r="P24" s="10">
         <v>1964.9283701957199</v>
       </c>
-      <c r="M24" s="10">
+      <c r="Q24" s="10">
         <v>1662.3571428571399</v>
       </c>
-      <c r="N24" s="14">
-        <f t="shared" si="6"/>
+      <c r="R24" s="14">
+        <f t="shared" si="25"/>
         <v>0.38223598842363216</v>
       </c>
-      <c r="O24" s="11">
+      <c r="S24" s="14">
+        <f t="shared" si="26"/>
+        <v>0.39193204122215458</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="30"/>
+        <v>0.40061340738530066</v>
+      </c>
+      <c r="U24" s="11">
         <v>733</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="V24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="W24" s="10">
         <v>7547.7637972476896</v>
       </c>
-      <c r="R24" s="10">
+      <c r="X24" s="10">
         <v>3613.3668742864002</v>
       </c>
-      <c r="S24" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y24" s="14">
+        <f t="shared" si="23"/>
         <v>-7.7825414567040951E-3</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="10" t="s">
+      <c r="Z24" s="14">
+        <f t="shared" si="24"/>
+        <v>9.6715471657254415E-2</v>
+      </c>
+      <c r="AA24" s="14">
+        <f t="shared" si="31"/>
+        <v>0.28053474426298602</v>
+      </c>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="10">
+      <c r="AD24" s="10">
         <v>8606.5950238139794</v>
       </c>
-      <c r="W24" s="10">
+      <c r="AE24" s="10">
         <v>6264.9762653218204</v>
       </c>
-      <c r="X24" s="14">
-        <f t="shared" si="8"/>
-        <v>0.60549315698509398</v>
-      </c>
-      <c r="Y24" s="11">
+      <c r="AF24" s="14">
+        <f t="shared" si="27"/>
+        <v>0.60905639089657604</v>
+      </c>
+      <c r="AG24" s="14">
+        <f t="shared" si="28"/>
+        <v>0.63691564534481793</v>
+      </c>
+      <c r="AH24" s="14">
+        <f t="shared" si="29"/>
+        <v>0.58119713644833404</v>
+      </c>
+      <c r="AI24" s="11">
         <v>1</v>
       </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
@@ -38857,19 +40672,29 @@
       <c r="ALX24" s="10"/>
       <c r="ALY24" s="10"/>
       <c r="ALZ24" s="10"/>
+      <c r="AMA24" s="10"/>
+      <c r="AMB24" s="10"/>
+      <c r="AMC24" s="10"/>
+      <c r="AMD24" s="10"/>
+      <c r="AME24" s="10"/>
+      <c r="AMF24" s="10"/>
+      <c r="AMG24" s="10"/>
+      <c r="AMH24" s="10"/>
+      <c r="AMI24" s="10"/>
+      <c r="AMJ24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:AB1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -38879,8 +40704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP33"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AM23"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39125,7 +40950,7 @@
       <c r="AF4" s="10">
         <v>967.15418958156704</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG4" s="35">
         <v>856.69181907770303</v>
       </c>
       <c r="AH4" s="10">
@@ -39223,7 +41048,7 @@
       <c r="AF5" s="25">
         <v>890.14965623814101</v>
       </c>
-      <c r="AG5" s="27">
+      <c r="AG5" s="36">
         <v>689.42763516601804</v>
       </c>
       <c r="AH5" s="25">
@@ -39424,7 +41249,7 @@
       <c r="AI7" s="25">
         <v>630.12391169980697</v>
       </c>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="27">
         <v>302.33440990266303</v>
       </c>
       <c r="AK7" s="26">
@@ -39614,7 +41439,7 @@
       <c r="AE9" s="25">
         <v>433.77461010847401</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AF9" s="27">
         <v>390.23350598362401</v>
       </c>
       <c r="AG9" s="25">
@@ -39823,7 +41648,7 @@
       <c r="AJ11" s="25">
         <v>1336.0466961593299</v>
       </c>
-      <c r="AK11" s="28">
+      <c r="AK11" s="27">
         <v>624.20805618205998</v>
       </c>
       <c r="AL11" s="25">
@@ -39914,7 +41739,7 @@
       <c r="AF12" s="10">
         <v>241.92571844677599</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="37">
         <v>171.40087302949499</v>
       </c>
       <c r="AH12" s="10">
@@ -39926,8 +41751,8 @@
       <c r="AJ12" s="10">
         <v>272.65590251703298</v>
       </c>
-      <c r="AK12" s="18">
-        <v>171.40087302949499</v>
+      <c r="AK12" s="20">
+        <v>255.19</v>
       </c>
       <c r="AL12" s="10">
         <v>331.51568657943301</v>
@@ -40015,7 +41840,7 @@
       <c r="AF13" s="25">
         <v>229.64566126111799</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AG13" s="38">
         <v>140.48030886387801</v>
       </c>
       <c r="AH13" s="25">
@@ -40027,8 +41852,8 @@
       <c r="AJ13" s="25">
         <v>256.46165798901802</v>
       </c>
-      <c r="AK13" s="26">
-        <v>140.48030886387801</v>
+      <c r="AK13" s="27">
+        <v>208.43</v>
       </c>
       <c r="AL13" s="25">
         <v>273.72462476133802</v>
@@ -40739,10 +42564,10 @@
       <c r="AF21" s="25">
         <v>5158.9482565096096</v>
       </c>
-      <c r="AG21" s="25">
+      <c r="AG21" s="26">
         <v>2568.6195728176699</v>
       </c>
-      <c r="AH21" s="25">
+      <c r="AH21" s="27">
         <v>2965.3188738141698</v>
       </c>
       <c r="AI21" s="25">
@@ -40751,7 +42576,7 @@
       <c r="AJ21" s="25">
         <v>5423.5044366009497</v>
       </c>
-      <c r="AK21" s="26">
+      <c r="AK21" s="27">
         <v>4069.3792532305401</v>
       </c>
       <c r="AL21" s="25">
@@ -41334,7 +43159,7 @@
   <dimension ref="B2:AM25"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11:AJ12"/>
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41419,7 +43244,7 @@
       <c r="Y2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>54</v>
       </c>
       <c r="AB2" s="23" t="s">
@@ -41434,7 +43259,7 @@
       <c r="AE2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="30" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="23" t="s">
@@ -41534,7 +43359,7 @@
       <c r="AE3" s="18">
         <v>775.65894884486602</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="28">
         <v>883.63841875328399</v>
       </c>
       <c r="AG3" s="10">
@@ -41633,7 +43458,7 @@
       <c r="AE4" s="26">
         <v>633.68517976704595</v>
       </c>
-      <c r="AF4" s="32">
+      <c r="AF4" s="31">
         <v>731.28771903127995</v>
       </c>
       <c r="AG4" s="25">
@@ -42330,7 +44155,7 @@
       <c r="AI11" s="10">
         <v>696.34</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ11" s="20">
         <v>273.51</v>
       </c>
       <c r="AK11" s="10">
@@ -42429,7 +44254,7 @@
       <c r="AI12" s="25">
         <v>596.49970271582697</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AJ12" s="27">
         <v>235.88</v>
       </c>
       <c r="AK12" s="25">
@@ -42845,7 +44670,7 @@
       <c r="AE17" s="10">
         <v>1500.3857274469201</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="18">
         <v>1194.80998320959</v>
       </c>
       <c r="AG17" s="10">
@@ -42857,8 +44682,8 @@
       <c r="AI17" s="10">
         <v>1341.90152240148</v>
       </c>
-      <c r="AJ17" s="18">
-        <v>1194.80998320959</v>
+      <c r="AJ17" s="20">
+        <v>1224.28</v>
       </c>
       <c r="AK17" s="10">
         <v>1479.98813175292</v>
@@ -42936,10 +44761,10 @@
       <c r="AE18" s="25">
         <v>1237.0353539989801</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AF18" s="27">
         <v>1043.0627198712</v>
       </c>
-      <c r="AG18" s="25">
+      <c r="AG18" s="26">
         <v>996.39458356584805</v>
       </c>
       <c r="AH18" s="25">
@@ -42948,8 +44773,8 @@
       <c r="AI18" s="25">
         <v>1135.7712834195299</v>
       </c>
-      <c r="AJ18" s="26">
-        <v>1043.0627198712</v>
+      <c r="AJ18" s="27">
+        <v>1049.43</v>
       </c>
       <c r="AK18" s="25">
         <v>1231.55854046012</v>
@@ -43140,7 +44965,7 @@
       <c r="AE20" s="25">
         <v>2971.81092397462</v>
       </c>
-      <c r="AF20" s="25">
+      <c r="AF20" s="26">
         <v>2599.6919222801198</v>
       </c>
       <c r="AG20" s="25">
@@ -43152,7 +44977,7 @@
       <c r="AI20" s="25">
         <v>3613.3668742864002</v>
       </c>
-      <c r="AJ20" s="26">
+      <c r="AJ20" s="27">
         <v>4019.07771079854</v>
       </c>
       <c r="AK20" s="25">
@@ -43237,8 +45062,8 @@
       <c r="AC21" s="10">
         <v>6003.3394159298696</v>
       </c>
-      <c r="AD21" s="10">
-        <v>3159.2225264291601</v>
+      <c r="AD21" s="18">
+        <v>3124.92</v>
       </c>
       <c r="AE21" s="10">
         <v>3494.7294559205602</v>
@@ -43255,7 +45080,7 @@
       <c r="AI21" s="10">
         <v>7654.5497542450303</v>
       </c>
-      <c r="AJ21" s="18">
+      <c r="AJ21" s="20">
         <v>3159.2225264291601</v>
       </c>
       <c r="AK21" s="10">
@@ -43338,8 +45163,8 @@
       <c r="AC22" s="25">
         <v>5177.7142857142899</v>
       </c>
-      <c r="AD22" s="25">
-        <v>2643.4674031812501</v>
+      <c r="AD22" s="26">
+        <v>2623.79</v>
       </c>
       <c r="AE22" s="25">
         <v>2817.3217873056301</v>
@@ -43356,7 +45181,7 @@
       <c r="AI22" s="25">
         <v>6172.9775873843701</v>
       </c>
-      <c r="AJ22" s="26">
+      <c r="AJ22" s="27">
         <v>2643.4674031812501</v>
       </c>
       <c r="AK22" s="25">
